--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B4D12D-BE82-42DC-AC28-7A2D83D21703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A52A5-73E7-47E9-89EB-3399DC6B1254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="119">
   <si>
     <t>Wk</t>
   </si>
@@ -779,16 +779,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2677,7 +2678,7 @@
         <v>95</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2797,7 +2798,7 @@
         <v>92</v>
       </c>
       <c r="I73">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2937,7 +2938,7 @@
         <v>86</v>
       </c>
       <c r="I80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2957,7 +2958,7 @@
         <v>90</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2976,6 +2977,9 @@
       <c r="H82" t="s">
         <v>88</v>
       </c>
+      <c r="I82">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -2993,6 +2997,9 @@
       <c r="H83" t="s">
         <v>84</v>
       </c>
+      <c r="I83">
+        <v>-1.75</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -3010,6 +3017,9 @@
       <c r="H84" t="s">
         <v>94</v>
       </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -3027,6 +3037,9 @@
       <c r="H85" t="s">
         <v>80</v>
       </c>
+      <c r="I85">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -3044,6 +3057,9 @@
       <c r="H86" t="s">
         <v>81</v>
       </c>
+      <c r="I86">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -3061,6 +3077,9 @@
       <c r="H87" t="s">
         <v>85</v>
       </c>
+      <c r="I87">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -3078,6 +3097,9 @@
       <c r="H88" t="s">
         <v>89</v>
       </c>
+      <c r="I88">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -3095,6 +3117,9 @@
       <c r="H89" t="s">
         <v>86</v>
       </c>
+      <c r="I89">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -3112,6 +3137,9 @@
       <c r="H90" t="s">
         <v>79</v>
       </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -3128,6 +3156,9 @@
       </c>
       <c r="H91" t="s">
         <v>87</v>
+      </c>
+      <c r="I91">
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3146,6 +3177,9 @@
       <c r="H92" t="s">
         <v>95</v>
       </c>
+      <c r="I92">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -3163,6 +3197,9 @@
       <c r="H93" t="s">
         <v>90</v>
       </c>
+      <c r="I93">
+        <v>-2.25</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -3180,6 +3217,9 @@
       <c r="H94" t="s">
         <v>77</v>
       </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -3197,6 +3237,9 @@
       <c r="H95" t="s">
         <v>82</v>
       </c>
+      <c r="I95">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -3214,8 +3257,11 @@
       <c r="H96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -3231,8 +3277,11 @@
       <c r="H97" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>10</v>
       </c>
@@ -3248,8 +3297,11 @@
       <c r="H98" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>10</v>
       </c>
@@ -3265,8 +3317,11 @@
       <c r="H99" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>10</v>
       </c>
@@ -3282,8 +3337,11 @@
       <c r="H100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -3299,8 +3357,11 @@
       <c r="H101" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11</v>
       </c>
@@ -3316,8 +3377,11 @@
       <c r="H102" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>11</v>
       </c>
@@ -3333,8 +3397,11 @@
       <c r="H103" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>11</v>
       </c>
@@ -3350,8 +3417,11 @@
       <c r="H104" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11</v>
       </c>
@@ -3367,8 +3437,11 @@
       <c r="H105" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>11</v>
       </c>
@@ -3384,8 +3457,11 @@
       <c r="H106" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>11</v>
       </c>
@@ -3401,8 +3477,11 @@
       <c r="H107" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -3418,8 +3497,11 @@
       <c r="H108" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>11</v>
       </c>
@@ -3435,8 +3517,11 @@
       <c r="H109" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -3452,8 +3537,11 @@
       <c r="H110" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11</v>
       </c>
@@ -3469,8 +3557,11 @@
       <c r="H111" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>12</v>
       </c>
@@ -3486,8 +3577,11 @@
       <c r="H112" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -3503,8 +3597,11 @@
       <c r="H113" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -3520,8 +3617,11 @@
       <c r="H114" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -3537,8 +3637,11 @@
       <c r="H115" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>12</v>
       </c>
@@ -3554,8 +3657,11 @@
       <c r="H116" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -3571,8 +3677,11 @@
       <c r="H117" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3588,8 +3697,11 @@
       <c r="H118" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
@@ -3605,8 +3717,11 @@
       <c r="H119" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -3622,8 +3737,11 @@
       <c r="H120" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -3639,8 +3757,11 @@
       <c r="H121" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>13</v>
       </c>
@@ -3656,8 +3777,11 @@
       <c r="H122" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13</v>
       </c>
@@ -3673,8 +3797,11 @@
       <c r="H123" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -3690,8 +3817,11 @@
       <c r="H124" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -3707,8 +3837,11 @@
       <c r="H125" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>13</v>
       </c>
@@ -3724,8 +3857,11 @@
       <c r="H126" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>13</v>
       </c>
@@ -3741,8 +3877,11 @@
       <c r="H127" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>13</v>
       </c>
@@ -3758,8 +3897,11 @@
       <c r="H128" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>13</v>
       </c>
@@ -3775,8 +3917,11 @@
       <c r="H129" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13</v>
       </c>
@@ -3792,8 +3937,11 @@
       <c r="H130" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13</v>
       </c>
@@ -3809,8 +3957,11 @@
       <c r="H131" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -3826,8 +3977,11 @@
       <c r="H132" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3843,8 +3997,11 @@
       <c r="H133" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -3860,8 +4017,11 @@
       <c r="H134" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -3877,8 +4037,11 @@
       <c r="H135" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -3894,8 +4057,11 @@
       <c r="H136" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -3911,8 +4077,11 @@
       <c r="H137" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14</v>
       </c>
@@ -3928,8 +4097,11 @@
       <c r="H138" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -3945,8 +4117,11 @@
       <c r="H139" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -3962,8 +4137,11 @@
       <c r="H140" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -3979,8 +4157,11 @@
       <c r="H141" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>15</v>
       </c>
@@ -3996,8 +4177,11 @@
       <c r="H142" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15</v>
       </c>
@@ -4013,8 +4197,11 @@
       <c r="H143" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -4030,8 +4217,11 @@
       <c r="H144" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15</v>
       </c>
@@ -4047,8 +4237,11 @@
       <c r="H145" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15</v>
       </c>
@@ -4064,8 +4257,11 @@
       <c r="H146" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15</v>
       </c>
@@ -4081,8 +4277,11 @@
       <c r="H147" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15</v>
       </c>
@@ -4098,8 +4297,11 @@
       <c r="H148" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15</v>
       </c>
@@ -4115,8 +4317,11 @@
       <c r="H149" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15</v>
       </c>
@@ -4132,8 +4337,11 @@
       <c r="H150" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15</v>
       </c>
@@ -4149,8 +4357,11 @@
       <c r="H151" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>16</v>
       </c>
@@ -4166,8 +4377,11 @@
       <c r="H152" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>16</v>
       </c>
@@ -4183,8 +4397,11 @@
       <c r="H153" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>16</v>
       </c>
@@ -4200,8 +4417,11 @@
       <c r="H154" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>16</v>
       </c>
@@ -4217,8 +4437,11 @@
       <c r="H155" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>16</v>
       </c>
@@ -4234,8 +4457,11 @@
       <c r="H156" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16</v>
       </c>
@@ -4251,8 +4477,11 @@
       <c r="H157" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
@@ -4268,8 +4497,11 @@
       <c r="H158" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>16</v>
       </c>
@@ -4285,8 +4517,11 @@
       <c r="H159" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>16</v>
       </c>
@@ -4302,25 +4537,31 @@
       <c r="H160" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D161" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I161">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>17</v>
       </c>
@@ -4331,13 +4572,16 @@
         <v>53</v>
       </c>
       <c r="D162" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H162" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>17</v>
       </c>
@@ -4348,13 +4592,16 @@
         <v>53</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H163" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I163">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>17</v>
       </c>
@@ -4365,13 +4612,16 @@
         <v>53</v>
       </c>
       <c r="D164" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H164" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I164">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -4382,13 +4632,16 @@
         <v>53</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H165" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I165">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>17</v>
       </c>
@@ -4399,13 +4652,16 @@
         <v>53</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H166" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I166">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>17</v>
       </c>
@@ -4416,30 +4672,36 @@
         <v>53</v>
       </c>
       <c r="D167" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="I167">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H168" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="I168">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>17</v>
       </c>
@@ -4450,13 +4712,16 @@
         <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I169">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>17</v>
       </c>
@@ -4467,30 +4732,33 @@
         <v>54</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H170" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I170">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>18</v>
       </c>
@@ -4501,13 +4769,13 @@
         <v>55</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H172" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>18</v>
       </c>
@@ -4518,13 +4786,13 @@
         <v>55</v>
       </c>
       <c r="D173" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H173" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>18</v>
       </c>
@@ -4535,13 +4803,13 @@
         <v>55</v>
       </c>
       <c r="D174" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H174" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>18</v>
       </c>
@@ -4552,13 +4820,13 @@
         <v>55</v>
       </c>
       <c r="D175" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H175" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>18</v>
       </c>
@@ -4569,10 +4837,10 @@
         <v>55</v>
       </c>
       <c r="D176" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H176" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4586,10 +4854,10 @@
         <v>55</v>
       </c>
       <c r="D177" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H177" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -4603,10 +4871,10 @@
         <v>55</v>
       </c>
       <c r="D178" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H178" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -4620,10 +4888,10 @@
         <v>55</v>
       </c>
       <c r="D179" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H179" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -4637,24 +4905,24 @@
         <v>55</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D181" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H181" t="s">
         <v>79</v>
@@ -4671,10 +4939,10 @@
         <v>56</v>
       </c>
       <c r="D182" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H182" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -4688,10 +4956,10 @@
         <v>56</v>
       </c>
       <c r="D183" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -4705,10 +4973,10 @@
         <v>56</v>
       </c>
       <c r="D184" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H184" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -4722,10 +4990,10 @@
         <v>56</v>
       </c>
       <c r="D185" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H185" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -4739,10 +5007,10 @@
         <v>56</v>
       </c>
       <c r="D186" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H186" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -4756,10 +5024,10 @@
         <v>56</v>
       </c>
       <c r="D187" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H187" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -4773,10 +5041,10 @@
         <v>56</v>
       </c>
       <c r="D188" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4790,10 +5058,10 @@
         <v>56</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H189" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -4807,27 +5075,27 @@
         <v>56</v>
       </c>
       <c r="D190" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H190" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,10 +5109,10 @@
         <v>57</v>
       </c>
       <c r="D192" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H192" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4858,10 +5126,10 @@
         <v>57</v>
       </c>
       <c r="D193" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H193" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -4875,10 +5143,10 @@
         <v>57</v>
       </c>
       <c r="D194" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -4892,10 +5160,10 @@
         <v>57</v>
       </c>
       <c r="D195" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H195" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -4909,10 +5177,10 @@
         <v>57</v>
       </c>
       <c r="D196" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H196" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -4926,10 +5194,10 @@
         <v>57</v>
       </c>
       <c r="D197" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H197" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -4943,10 +5211,10 @@
         <v>57</v>
       </c>
       <c r="D198" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H198" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -4960,10 +5228,10 @@
         <v>57</v>
       </c>
       <c r="D199" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H199" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -4977,27 +5245,27 @@
         <v>57</v>
       </c>
       <c r="D200" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H200" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H201" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -5011,10 +5279,10 @@
         <v>58</v>
       </c>
       <c r="D202" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H202" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5028,10 +5296,10 @@
         <v>58</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H203" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5045,10 +5313,10 @@
         <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5062,10 +5330,10 @@
         <v>58</v>
       </c>
       <c r="D205" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H205" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -5079,10 +5347,10 @@
         <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H206" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5096,10 +5364,10 @@
         <v>58</v>
       </c>
       <c r="D207" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H207" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -5113,10 +5381,10 @@
         <v>58</v>
       </c>
       <c r="D208" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H208" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -5130,10 +5398,10 @@
         <v>58</v>
       </c>
       <c r="D209" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H209" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5147,27 +5415,27 @@
         <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H210" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B211" t="s">
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D211" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H211" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -5181,10 +5449,10 @@
         <v>59</v>
       </c>
       <c r="D212" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H212" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -5198,10 +5466,10 @@
         <v>59</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H213" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -5215,10 +5483,10 @@
         <v>59</v>
       </c>
       <c r="D214" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H214" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -5232,10 +5500,10 @@
         <v>59</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H215" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -5249,10 +5517,10 @@
         <v>59</v>
       </c>
       <c r="D216" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H216" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -5266,10 +5534,10 @@
         <v>59</v>
       </c>
       <c r="D217" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H217" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -5283,10 +5551,10 @@
         <v>59</v>
       </c>
       <c r="D218" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H218" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -5300,10 +5568,10 @@
         <v>59</v>
       </c>
       <c r="D219" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H219" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -5317,27 +5585,27 @@
         <v>59</v>
       </c>
       <c r="D220" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H220" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D221" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H221" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -5351,10 +5619,10 @@
         <v>60</v>
       </c>
       <c r="D222" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H222" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -5368,10 +5636,10 @@
         <v>60</v>
       </c>
       <c r="D223" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H223" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -5385,10 +5653,10 @@
         <v>60</v>
       </c>
       <c r="D224" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H224" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -5402,10 +5670,10 @@
         <v>60</v>
       </c>
       <c r="D225" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H225" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -5419,10 +5687,10 @@
         <v>60</v>
       </c>
       <c r="D226" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H226" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -5436,10 +5704,10 @@
         <v>60</v>
       </c>
       <c r="D227" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H227" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -5453,10 +5721,10 @@
         <v>60</v>
       </c>
       <c r="D228" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H228" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -5470,10 +5738,10 @@
         <v>60</v>
       </c>
       <c r="D229" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H229" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -5487,27 +5755,27 @@
         <v>60</v>
       </c>
       <c r="D230" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H230" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D231" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H231" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -5521,10 +5789,10 @@
         <v>61</v>
       </c>
       <c r="D232" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H232" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -5538,10 +5806,10 @@
         <v>61</v>
       </c>
       <c r="D233" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H233" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -5555,10 +5823,10 @@
         <v>61</v>
       </c>
       <c r="D234" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -5572,10 +5840,10 @@
         <v>61</v>
       </c>
       <c r="D235" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H235" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -5589,10 +5857,10 @@
         <v>61</v>
       </c>
       <c r="D236" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H236" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -5600,16 +5868,16 @@
         <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D237" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H237" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -5623,10 +5891,10 @@
         <v>62</v>
       </c>
       <c r="D238" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H238" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -5640,10 +5908,10 @@
         <v>62</v>
       </c>
       <c r="D239" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H239" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -5657,27 +5925,27 @@
         <v>62</v>
       </c>
       <c r="D240" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H240" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D241" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H241" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -5691,10 +5959,10 @@
         <v>63</v>
       </c>
       <c r="D242" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H242" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -5708,10 +5976,10 @@
         <v>63</v>
       </c>
       <c r="D243" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H243" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -5725,10 +5993,10 @@
         <v>63</v>
       </c>
       <c r="D244" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H244" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -5742,10 +6010,10 @@
         <v>63</v>
       </c>
       <c r="D245" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H245" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -5759,10 +6027,10 @@
         <v>63</v>
       </c>
       <c r="D246" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H246" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -5776,10 +6044,10 @@
         <v>63</v>
       </c>
       <c r="D247" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H247" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -5793,10 +6061,10 @@
         <v>63</v>
       </c>
       <c r="D248" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H248" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -5810,10 +6078,10 @@
         <v>63</v>
       </c>
       <c r="D249" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H249" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -5827,27 +6095,27 @@
         <v>63</v>
       </c>
       <c r="D250" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B251" t="s">
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D251" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H251" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -5861,10 +6129,10 @@
         <v>64</v>
       </c>
       <c r="D252" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H252" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -5878,10 +6146,10 @@
         <v>64</v>
       </c>
       <c r="D253" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H253" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -5895,10 +6163,10 @@
         <v>64</v>
       </c>
       <c r="D254" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H254" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -5912,10 +6180,10 @@
         <v>64</v>
       </c>
       <c r="D255" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H255" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -5929,10 +6197,10 @@
         <v>64</v>
       </c>
       <c r="D256" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H256" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -5946,10 +6214,10 @@
         <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H257" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -5963,10 +6231,10 @@
         <v>64</v>
       </c>
       <c r="D258" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -5980,10 +6248,10 @@
         <v>64</v>
       </c>
       <c r="D259" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H259" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -5997,27 +6265,27 @@
         <v>64</v>
       </c>
       <c r="D260" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H260" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
       </c>
       <c r="H261" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -6031,10 +6299,10 @@
         <v>65</v>
       </c>
       <c r="D262" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H262" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -6048,10 +6316,10 @@
         <v>65</v>
       </c>
       <c r="D263" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H263" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -6065,10 +6333,10 @@
         <v>65</v>
       </c>
       <c r="D264" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H264" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -6082,10 +6350,10 @@
         <v>65</v>
       </c>
       <c r="D265" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H265" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -6099,10 +6367,10 @@
         <v>65</v>
       </c>
       <c r="D266" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H266" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -6116,10 +6384,10 @@
         <v>65</v>
       </c>
       <c r="D267" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H267" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -6133,10 +6401,10 @@
         <v>65</v>
       </c>
       <c r="D268" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H268" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -6150,10 +6418,10 @@
         <v>65</v>
       </c>
       <c r="D269" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H269" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -6167,27 +6435,27 @@
         <v>65</v>
       </c>
       <c r="D270" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H270" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B271" t="s">
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D271" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H271" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -6201,10 +6469,10 @@
         <v>66</v>
       </c>
       <c r="D272" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H272" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -6218,10 +6486,10 @@
         <v>66</v>
       </c>
       <c r="D273" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H273" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -6235,10 +6503,10 @@
         <v>66</v>
       </c>
       <c r="D274" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H274" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -6252,10 +6520,10 @@
         <v>66</v>
       </c>
       <c r="D275" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H275" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -6269,10 +6537,10 @@
         <v>66</v>
       </c>
       <c r="D276" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H276" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -6286,10 +6554,10 @@
         <v>66</v>
       </c>
       <c r="D277" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H277" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -6303,10 +6571,10 @@
         <v>66</v>
       </c>
       <c r="D278" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H278" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -6320,10 +6588,10 @@
         <v>66</v>
       </c>
       <c r="D279" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H279" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -6337,27 +6605,27 @@
         <v>66</v>
       </c>
       <c r="D280" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H280" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D281" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H281" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -6371,10 +6639,10 @@
         <v>67</v>
       </c>
       <c r="D282" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H282" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -6388,10 +6656,10 @@
         <v>67</v>
       </c>
       <c r="D283" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H283" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -6405,10 +6673,10 @@
         <v>67</v>
       </c>
       <c r="D284" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H284" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -6422,10 +6690,10 @@
         <v>67</v>
       </c>
       <c r="D285" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H285" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -6439,10 +6707,10 @@
         <v>67</v>
       </c>
       <c r="D286" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H286" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -6456,10 +6724,10 @@
         <v>67</v>
       </c>
       <c r="D287" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H287" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -6473,10 +6741,10 @@
         <v>67</v>
       </c>
       <c r="D288" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H288" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -6490,10 +6758,10 @@
         <v>67</v>
       </c>
       <c r="D289" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H289" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -6507,27 +6775,27 @@
         <v>67</v>
       </c>
       <c r="D290" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D291" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H291" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -6541,10 +6809,10 @@
         <v>68</v>
       </c>
       <c r="D292" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H292" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -6558,10 +6826,10 @@
         <v>68</v>
       </c>
       <c r="D293" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H293" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -6575,10 +6843,10 @@
         <v>68</v>
       </c>
       <c r="D294" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H294" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -6592,10 +6860,10 @@
         <v>68</v>
       </c>
       <c r="D295" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H295" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -6609,10 +6877,10 @@
         <v>68</v>
       </c>
       <c r="D296" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H296" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -6626,10 +6894,10 @@
         <v>68</v>
       </c>
       <c r="D297" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H297" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -6643,10 +6911,10 @@
         <v>68</v>
       </c>
       <c r="D298" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H298" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -6660,10 +6928,10 @@
         <v>68</v>
       </c>
       <c r="D299" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H299" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -6677,27 +6945,27 @@
         <v>68</v>
       </c>
       <c r="D300" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H300" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D301" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H301" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -6711,10 +6979,10 @@
         <v>69</v>
       </c>
       <c r="D302" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H302" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -6728,10 +6996,10 @@
         <v>69</v>
       </c>
       <c r="D303" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H303" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -6745,10 +7013,10 @@
         <v>69</v>
       </c>
       <c r="D304" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H304" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -6762,10 +7030,10 @@
         <v>69</v>
       </c>
       <c r="D305" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H305" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -6779,10 +7047,10 @@
         <v>69</v>
       </c>
       <c r="D306" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H306" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -6796,10 +7064,10 @@
         <v>69</v>
       </c>
       <c r="D307" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H307" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -6813,10 +7081,10 @@
         <v>69</v>
       </c>
       <c r="D308" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H308" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -6830,10 +7098,10 @@
         <v>69</v>
       </c>
       <c r="D309" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H309" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -6847,27 +7115,27 @@
         <v>69</v>
       </c>
       <c r="D310" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H310" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D311" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H311" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -6881,10 +7149,10 @@
         <v>70</v>
       </c>
       <c r="D312" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H312" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -6898,10 +7166,10 @@
         <v>70</v>
       </c>
       <c r="D313" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H313" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -6915,10 +7183,10 @@
         <v>70</v>
       </c>
       <c r="D314" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H314" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -6932,10 +7200,10 @@
         <v>70</v>
       </c>
       <c r="D315" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H315" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -6949,10 +7217,10 @@
         <v>70</v>
       </c>
       <c r="D316" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H316" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -6966,10 +7234,10 @@
         <v>70</v>
       </c>
       <c r="D317" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H317" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -6983,10 +7251,10 @@
         <v>70</v>
       </c>
       <c r="D318" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H318" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -7000,10 +7268,10 @@
         <v>70</v>
       </c>
       <c r="D319" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H319" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -7017,27 +7285,27 @@
         <v>70</v>
       </c>
       <c r="D320" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H320" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D321" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H321" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -7051,10 +7319,10 @@
         <v>71</v>
       </c>
       <c r="D322" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H322" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -7068,10 +7336,10 @@
         <v>71</v>
       </c>
       <c r="D323" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H323" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -7085,10 +7353,10 @@
         <v>71</v>
       </c>
       <c r="D324" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H324" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -7102,10 +7370,10 @@
         <v>71</v>
       </c>
       <c r="D325" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H325" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -7119,10 +7387,10 @@
         <v>71</v>
       </c>
       <c r="D326" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H326" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -7136,10 +7404,10 @@
         <v>71</v>
       </c>
       <c r="D327" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H327" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -7153,10 +7421,10 @@
         <v>71</v>
       </c>
       <c r="D328" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H328" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -7170,10 +7438,10 @@
         <v>71</v>
       </c>
       <c r="D329" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H329" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -7187,27 +7455,27 @@
         <v>71</v>
       </c>
       <c r="D330" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H330" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B331" t="s">
         <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D331" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H331" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -7221,10 +7489,10 @@
         <v>72</v>
       </c>
       <c r="D332" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H332" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -7238,10 +7506,10 @@
         <v>72</v>
       </c>
       <c r="D333" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H333" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -7255,10 +7523,10 @@
         <v>72</v>
       </c>
       <c r="D334" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H334" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -7272,10 +7540,10 @@
         <v>72</v>
       </c>
       <c r="D335" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H335" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -7289,10 +7557,10 @@
         <v>72</v>
       </c>
       <c r="D336" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H336" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -7306,10 +7574,10 @@
         <v>72</v>
       </c>
       <c r="D337" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H337" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -7323,10 +7591,10 @@
         <v>72</v>
       </c>
       <c r="D338" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H338" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -7340,10 +7608,10 @@
         <v>72</v>
       </c>
       <c r="D339" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H339" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -7357,27 +7625,27 @@
         <v>72</v>
       </c>
       <c r="D340" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H340" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B341" t="s">
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D341" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H341" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -7391,10 +7659,10 @@
         <v>73</v>
       </c>
       <c r="D342" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H342" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -7408,10 +7676,10 @@
         <v>73</v>
       </c>
       <c r="D343" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H343" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -7425,10 +7693,10 @@
         <v>73</v>
       </c>
       <c r="D344" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H344" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -7442,10 +7710,10 @@
         <v>73</v>
       </c>
       <c r="D345" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H345" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -7459,10 +7727,10 @@
         <v>73</v>
       </c>
       <c r="D346" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H346" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -7476,10 +7744,10 @@
         <v>73</v>
       </c>
       <c r="D347" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H347" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -7493,10 +7761,10 @@
         <v>73</v>
       </c>
       <c r="D348" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H348" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -7510,10 +7778,10 @@
         <v>73</v>
       </c>
       <c r="D349" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H349" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -7527,27 +7795,27 @@
         <v>73</v>
       </c>
       <c r="D350" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H350" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D351" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H351" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -7561,10 +7829,10 @@
         <v>74</v>
       </c>
       <c r="D352" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H352" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -7578,10 +7846,10 @@
         <v>74</v>
       </c>
       <c r="D353" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H353" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -7595,10 +7863,10 @@
         <v>74</v>
       </c>
       <c r="D354" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H354" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -7612,10 +7880,10 @@
         <v>74</v>
       </c>
       <c r="D355" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H355" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -7629,10 +7897,10 @@
         <v>74</v>
       </c>
       <c r="D356" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H356" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -7646,10 +7914,10 @@
         <v>74</v>
       </c>
       <c r="D357" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H357" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -7663,10 +7931,10 @@
         <v>74</v>
       </c>
       <c r="D358" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H358" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -7680,10 +7948,10 @@
         <v>74</v>
       </c>
       <c r="D359" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H359" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -7697,27 +7965,27 @@
         <v>74</v>
       </c>
       <c r="D360" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H360" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D361" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H361" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -7731,10 +7999,10 @@
         <v>75</v>
       </c>
       <c r="D362" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H362" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -7748,10 +8016,10 @@
         <v>75</v>
       </c>
       <c r="D363" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H363" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -7765,10 +8033,10 @@
         <v>75</v>
       </c>
       <c r="D364" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H364" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -7782,10 +8050,10 @@
         <v>75</v>
       </c>
       <c r="D365" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H365" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -7799,10 +8067,10 @@
         <v>75</v>
       </c>
       <c r="D366" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H366" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -7816,10 +8084,10 @@
         <v>75</v>
       </c>
       <c r="D367" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H367" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -7833,10 +8101,10 @@
         <v>75</v>
       </c>
       <c r="D368" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H368" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -7850,10 +8118,10 @@
         <v>75</v>
       </c>
       <c r="D369" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H369" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -7867,27 +8135,27 @@
         <v>75</v>
       </c>
       <c r="D370" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H370" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B371" t="s">
         <v>10</v>
       </c>
       <c r="C371" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D371" t="s">
+        <v>84</v>
+      </c>
+      <c r="H371" t="s">
         <v>86</v>
-      </c>
-      <c r="H371" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -7901,10 +8169,10 @@
         <v>76</v>
       </c>
       <c r="D372" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H372" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -7918,10 +8186,10 @@
         <v>76</v>
       </c>
       <c r="D373" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H373" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -7935,10 +8203,10 @@
         <v>76</v>
       </c>
       <c r="D374" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H374" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -7952,10 +8220,10 @@
         <v>76</v>
       </c>
       <c r="D375" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H375" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -7969,10 +8237,10 @@
         <v>76</v>
       </c>
       <c r="D376" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H376" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -7986,10 +8254,10 @@
         <v>76</v>
       </c>
       <c r="D377" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H377" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -8003,10 +8271,10 @@
         <v>76</v>
       </c>
       <c r="D378" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H378" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -8020,10 +8288,10 @@
         <v>76</v>
       </c>
       <c r="D379" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H379" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -8037,26 +8305,9 @@
         <v>76</v>
       </c>
       <c r="D380" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H380" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>38</v>
-      </c>
-      <c r="B381" t="s">
-        <v>10</v>
-      </c>
-      <c r="C381" t="s">
-        <v>76</v>
-      </c>
-      <c r="D381" t="s">
-        <v>79</v>
-      </c>
-      <c r="H381" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8069,7 +8320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B839C6-183B-4B37-A23E-9B653BB850A0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A52A5-73E7-47E9-89EB-3399DC6B1254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F88E7-53FB-4CEF-BEDC-B01FDB543EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,21 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="91">
   <si>
     <t>Wk</t>
   </si>
@@ -170,90 +180,6 @@
     <t>2021-11-28</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2021-12-11</t>
-  </si>
-  <si>
-    <t>2021-12-14</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>2021-12-18</t>
-  </si>
-  <si>
-    <t>2021-12-26</t>
-  </si>
-  <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>2022-01-22</t>
-  </si>
-  <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-09</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
-    <t>2022-02-19</t>
-  </si>
-  <si>
-    <t>2022-02-26</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>2022-03-12</t>
-  </si>
-  <si>
-    <t>2022-03-19</t>
-  </si>
-  <si>
-    <t>2022-04-02</t>
-  </si>
-  <si>
-    <t>2022-04-09</t>
-  </si>
-  <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
     <t>Brentford</t>
   </si>
   <si>
@@ -377,7 +303,7 @@
     <t>team</t>
   </si>
   <si>
-    <t>id</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -401,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -436,11 +368,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -832,19 +767,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>1.3</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>1.5</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>0.25</v>
@@ -861,19 +796,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>1.5</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -890,19 +825,19 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0.8</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>1.1000000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I4">
         <v>-0.75</v>
@@ -919,19 +854,19 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>1.3</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>0.25</v>
@@ -948,19 +883,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>1.2</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>0.25</v>
@@ -977,19 +912,19 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0.9</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>-1.5</v>
@@ -1006,19 +941,19 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>2.4</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>0.7</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <v>-0.5</v>
@@ -1035,19 +970,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>1.4</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>1.25</v>
@@ -1064,19 +999,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>1.4</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>2.2000000000000002</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I10">
         <v>0.25</v>
@@ -1093,19 +1028,19 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>1.3</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>1.9</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1122,19 +1057,19 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>2.9</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I12">
         <v>-1.75</v>
@@ -1151,19 +1086,19 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>0.7</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I13">
         <v>-0.5</v>
@@ -1180,19 +1115,19 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>2.7</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>0.1</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I14">
         <v>-2.5</v>
@@ -1209,19 +1144,19 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0.6</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>0.9</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1238,19 +1173,19 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>1.5</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>2.1</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <v>-0.25</v>
@@ -1267,19 +1202,19 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>1.5</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>0.9</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I17">
         <v>-0.75</v>
@@ -1296,19 +1231,19 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>0.8</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <v>1.5</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1325,19 +1260,19 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>1.4</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G19">
         <v>1.5</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1354,19 +1289,19 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0.3</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <v>2.9</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I20">
         <v>0.5</v>
@@ -1383,19 +1318,19 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>2.5</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G21">
         <v>0.8</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I21">
         <v>-0.25</v>
@@ -1412,19 +1347,19 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>3.8</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <v>-1.5</v>
@@ -1441,19 +1376,19 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>1.6</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>1.3</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I23">
         <v>0.5</v>
@@ -1470,19 +1405,19 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>1.2</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>0.7</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1499,19 +1434,19 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1.4</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>3.6</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1528,19 +1463,19 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.6</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G26">
         <v>1.2</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I26">
         <v>-0.5</v>
@@ -1557,19 +1492,19 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G27">
         <v>1.6</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I27">
         <v>-0.25</v>
@@ -1586,19 +1521,19 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>2.7</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>0.8</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I28">
         <v>-0.25</v>
@@ -1615,19 +1550,19 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0.9</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G29">
         <v>0.6</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -1644,19 +1579,19 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E30">
         <v>1.4</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>1.5</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I30">
         <v>0.25</v>
@@ -1673,19 +1608,19 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>1.8</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G31">
         <v>0.6</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I31">
         <v>0.75</v>
@@ -1702,19 +1637,19 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>2.4</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G32">
         <v>0.1</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I32">
         <v>0.25</v>
@@ -1731,19 +1666,19 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>0.8</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G33">
         <v>0.6</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I33">
         <v>0.25</v>
@@ -1760,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G34">
         <v>0.6</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I34">
         <v>-1.25</v>
@@ -1789,19 +1724,19 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <v>0.7</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G35">
         <v>0.2</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1818,19 +1753,19 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>0.2</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I36">
         <v>0.25</v>
@@ -1847,19 +1782,19 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>0.8</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G37">
         <v>2.8</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I37">
         <v>0.75</v>
@@ -1876,19 +1811,19 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>2.2000000000000002</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G38">
         <v>0.7</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I38">
         <v>-2</v>
@@ -1905,19 +1840,19 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>1.1000000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G39">
         <v>1.5</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I39">
         <v>-1.5</v>
@@ -1934,19 +1869,19 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>1.2</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G40">
         <v>4.0999999999999996</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I40">
         <v>0.75</v>
@@ -1963,19 +1898,19 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>1.3</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G41">
         <v>1.3</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I41">
         <v>-0.75</v>
@@ -1992,19 +1927,19 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>1.3</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G42">
         <v>2.2000000000000002</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I42">
         <v>0.25</v>
@@ -2021,19 +1956,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>0.6</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G43">
         <v>2.4</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I43">
         <v>-0.5</v>
@@ -2050,19 +1985,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>2.8</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G44">
         <v>0.9</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I44">
         <v>-1.5</v>
@@ -2079,19 +2014,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>0.4</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I45">
         <v>-2</v>
@@ -2108,19 +2043,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <v>0.9</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G46">
         <v>1.9</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I46">
         <v>-0.25</v>
@@ -2137,19 +2072,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>1.3</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <v>1.2</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I47">
         <v>0.5</v>
@@ -2166,19 +2101,19 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>1.3</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G48">
         <v>0.7</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I48">
         <v>-0.25</v>
@@ -2195,19 +2130,19 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <v>1.6</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G49">
         <v>1.8</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I49">
         <v>0.5</v>
@@ -2224,19 +2159,19 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>1.4</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G50">
         <v>1.7</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I50">
         <v>-0.25</v>
@@ -2253,19 +2188,19 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E51">
         <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G51">
         <v>1.9</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I51">
         <v>0.5</v>
@@ -2282,19 +2217,19 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E52">
         <v>0.3</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G52">
         <v>1.7</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2311,19 +2246,19 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>2.2999999999999998</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G53">
         <v>1.2</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I53">
         <v>-1.25</v>
@@ -2340,19 +2275,19 @@
         <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E54">
         <v>1.3</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G54">
         <v>1.9</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I54">
         <v>0.25</v>
@@ -2369,19 +2304,19 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <v>2.6</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>0.7</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I55">
         <v>-0.75</v>
@@ -2398,19 +2333,19 @@
         <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>1.1000000000000001</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G56">
         <v>2.5</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I56">
         <v>-0.25</v>
@@ -2427,19 +2362,19 @@
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>2.1</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G57">
         <v>0.6</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I57">
         <v>-0.75</v>
@@ -2456,19 +2391,19 @@
         <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E58">
         <v>1.9</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G58">
         <v>2.5</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I58">
         <v>1.25</v>
@@ -2485,19 +2420,19 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>1.2</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I59">
         <v>-0.25</v>
@@ -2514,19 +2449,19 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E60">
         <v>0.8</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I60">
         <v>-0.25</v>
@@ -2543,19 +2478,19 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E61">
         <v>1.4</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G61">
         <v>0.6</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2572,10 +2507,10 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I62">
         <v>-1</v>
@@ -2592,10 +2527,10 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I63">
         <v>-0.75</v>
@@ -2612,10 +2547,10 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I64">
         <v>-0.5</v>
@@ -2632,10 +2567,10 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I65">
         <v>-1.25</v>
@@ -2652,10 +2587,10 @@
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I66">
         <v>-0.75</v>
@@ -2672,10 +2607,10 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I67">
         <v>0.25</v>
@@ -2692,10 +2627,10 @@
         <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I68">
         <v>-0.5</v>
@@ -2712,10 +2647,10 @@
         <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I69">
         <v>0.25</v>
@@ -2732,10 +2667,10 @@
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I70">
         <v>-0.25</v>
@@ -2752,10 +2687,10 @@
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I71">
         <v>0.25</v>
@@ -2772,10 +2707,10 @@
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I72">
         <v>1.5</v>
@@ -2792,10 +2727,10 @@
         <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I73">
         <v>0.25</v>
@@ -2812,10 +2747,10 @@
         <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I74">
         <v>0.5</v>
@@ -2832,10 +2767,10 @@
         <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I75">
         <v>-0.25</v>
@@ -2852,10 +2787,10 @@
         <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I76">
         <v>-2.25</v>
@@ -2872,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I77">
         <v>-0.25</v>
@@ -2892,10 +2827,10 @@
         <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2912,10 +2847,10 @@
         <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2932,10 +2867,10 @@
         <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I80">
         <v>0.25</v>
@@ -2952,10 +2887,10 @@
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I81">
         <v>-0.75</v>
@@ -2972,10 +2907,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I82">
         <v>-0.5</v>
@@ -2992,10 +2927,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I83">
         <v>-1.75</v>
@@ -3012,10 +2947,10 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3032,10 +2967,10 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I85">
         <v>-0.5</v>
@@ -3052,10 +2987,10 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I86">
         <v>-0.75</v>
@@ -3072,10 +3007,10 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I87">
         <v>-0.5</v>
@@ -3092,10 +3027,10 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I88">
         <v>1.25</v>
@@ -3112,10 +3047,10 @@
         <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I89">
         <v>-0.25</v>
@@ -3132,10 +3067,10 @@
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3152,10 +3087,10 @@
         <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I91">
         <v>0.25</v>
@@ -3172,10 +3107,10 @@
         <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I92">
         <v>-0.25</v>
@@ -3192,10 +3127,10 @@
         <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H93" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I93">
         <v>-2.25</v>
@@ -3212,10 +3147,10 @@
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3232,10 +3167,10 @@
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I95">
         <v>1.25</v>
@@ -3252,10 +3187,10 @@
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H96" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I96">
         <v>0.25</v>
@@ -3272,10 +3207,10 @@
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I97">
         <v>-1.75</v>
@@ -3292,10 +3227,10 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I98">
         <v>0.25</v>
@@ -3312,10 +3247,10 @@
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I99">
         <v>0.5</v>
@@ -3332,10 +3267,10 @@
         <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H100" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3352,10 +3287,10 @@
         <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I101">
         <v>-0.25</v>
@@ -3372,10 +3307,10 @@
         <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H102" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I102">
         <v>-0.5</v>
@@ -3392,10 +3327,10 @@
         <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H103" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I103">
         <v>0.75</v>
@@ -3412,10 +3347,10 @@
         <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I104">
         <v>-0.75</v>
@@ -3432,10 +3367,10 @@
         <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H105" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I105">
         <v>-0.25</v>
@@ -3452,10 +3387,10 @@
         <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H106" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I106">
         <v>-1.5</v>
@@ -3472,10 +3407,10 @@
         <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I107">
         <v>-1</v>
@@ -3492,10 +3427,10 @@
         <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H108" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -3512,10 +3447,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H109" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I109">
         <v>-1.25</v>
@@ -3532,10 +3467,10 @@
         <v>44</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I110">
         <v>0.25</v>
@@ -3552,10 +3487,10 @@
         <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H111" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I111">
         <v>0.75</v>
@@ -3572,10 +3507,10 @@
         <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I112">
         <v>0.75</v>
@@ -3592,10 +3527,10 @@
         <v>45</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H113" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -3612,10 +3547,10 @@
         <v>45</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H114" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I114">
         <v>-0.25</v>
@@ -3632,10 +3567,10 @@
         <v>45</v>
       </c>
       <c r="D115" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H115" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I115">
         <v>0.25</v>
@@ -3652,10 +3587,10 @@
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H116" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I116">
         <v>0.25</v>
@@ -3672,10 +3607,10 @@
         <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H117" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -3692,10 +3627,10 @@
         <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H118" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -3712,10 +3647,10 @@
         <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H119" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I119">
         <v>-1.25</v>
@@ -3732,13 +3667,13 @@
         <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H120" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -3752,10 +3687,10 @@
         <v>46</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H121" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I121">
         <v>-0.75</v>
@@ -3772,10 +3707,10 @@
         <v>47</v>
       </c>
       <c r="D122" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H122" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I122">
         <v>-1.25</v>
@@ -3792,10 +3727,10 @@
         <v>47</v>
       </c>
       <c r="D123" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H123" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I123">
         <v>-0.25</v>
@@ -3812,10 +3747,10 @@
         <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H124" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I124">
         <v>0.25</v>
@@ -3832,10 +3767,10 @@
         <v>47</v>
       </c>
       <c r="D125" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H125" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I125">
         <v>-1.5</v>
@@ -3852,10 +3787,10 @@
         <v>47</v>
       </c>
       <c r="D126" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H126" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I126">
         <v>-0.5</v>
@@ -3871,11 +3806,14 @@
       <c r="C127" t="s">
         <v>48</v>
       </c>
-      <c r="D127" t="s">
-        <v>77</v>
-      </c>
-      <c r="H127" t="s">
-        <v>83</v>
+      <c r="D127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I127">
         <v>-0.25</v>
@@ -3891,11 +3829,14 @@
       <c r="C128" t="s">
         <v>48</v>
       </c>
-      <c r="D128" t="s">
-        <v>79</v>
-      </c>
-      <c r="H128" t="s">
-        <v>81</v>
+      <c r="D128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I128">
         <v>-0.75</v>
@@ -3911,14 +3852,17 @@
       <c r="C129" t="s">
         <v>48</v>
       </c>
-      <c r="D129" t="s">
-        <v>80</v>
-      </c>
-      <c r="H129" t="s">
-        <v>86</v>
+      <c r="D129" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I129">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -3932,33 +3876,33 @@
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H130" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I130">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C131" s="4">
+        <v>44531</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H131" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -3968,17 +3912,17 @@
       <c r="B132" t="s">
         <v>12</v>
       </c>
-      <c r="C132" t="s">
-        <v>49</v>
+      <c r="C132" s="4">
+        <v>44530</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="H132" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -3988,17 +3932,17 @@
       <c r="B133" t="s">
         <v>12</v>
       </c>
-      <c r="C133" t="s">
-        <v>49</v>
+      <c r="C133" s="4">
+        <v>44531</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H133" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4008,17 +3952,17 @@
       <c r="B134" t="s">
         <v>12</v>
       </c>
-      <c r="C134" t="s">
-        <v>49</v>
+      <c r="C134" s="4">
+        <v>44531</v>
       </c>
       <c r="D134" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H134" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I134">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4028,14 +3972,14 @@
       <c r="B135" t="s">
         <v>12</v>
       </c>
-      <c r="C135" t="s">
-        <v>49</v>
+      <c r="C135" s="4">
+        <v>44531</v>
       </c>
       <c r="D135" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="H135" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="I135">
         <v>1.5</v>
@@ -4048,17 +3992,17 @@
       <c r="B136" t="s">
         <v>12</v>
       </c>
-      <c r="C136" t="s">
-        <v>49</v>
+      <c r="C136" s="4">
+        <v>44531</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H136" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I136">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4068,17 +4012,17 @@
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137" t="s">
-        <v>49</v>
+      <c r="C137" s="4">
+        <v>44532</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="H137" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I137">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4086,16 +4030,16 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="C138" s="4">
+        <v>44530</v>
       </c>
       <c r="D138" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H138" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I138">
         <v>-0.5</v>
@@ -4108,17 +4052,17 @@
       <c r="B139" t="s">
         <v>13</v>
       </c>
-      <c r="C139" t="s">
-        <v>50</v>
+      <c r="C139" s="4">
+        <v>44532</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H139" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I139">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4128,34 +4072,34 @@
       <c r="B140" t="s">
         <v>13</v>
       </c>
-      <c r="C140" t="s">
-        <v>50</v>
+      <c r="C140" s="4">
+        <v>44531</v>
       </c>
       <c r="D140" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H140" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="C141" s="4">
+        <v>44534</v>
       </c>
       <c r="D141" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H141" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I141">
         <v>-0.25</v>
@@ -4168,17 +4112,17 @@
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="C142" t="s">
-        <v>51</v>
+      <c r="C142" s="4">
+        <v>44536</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4188,17 +4132,17 @@
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C143" t="s">
-        <v>51</v>
+      <c r="C143" s="4">
+        <v>44535</v>
       </c>
       <c r="D143" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H143" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I143">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4208,17 +4152,17 @@
       <c r="B144" t="s">
         <v>9</v>
       </c>
-      <c r="C144" t="s">
-        <v>51</v>
+      <c r="C144" s="4">
+        <v>44535</v>
       </c>
       <c r="D144" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H144" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4228,17 +4172,17 @@
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145" t="s">
-        <v>51</v>
+      <c r="C145" s="4">
+        <v>44535</v>
       </c>
       <c r="D145" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H145" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I145">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4248,17 +4192,17 @@
       <c r="B146" t="s">
         <v>9</v>
       </c>
-      <c r="C146" t="s">
-        <v>51</v>
+      <c r="C146" s="4">
+        <v>44534</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H146" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I146">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4268,17 +4212,17 @@
       <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="C147" t="s">
-        <v>51</v>
+      <c r="C147" s="4">
+        <v>44534</v>
       </c>
       <c r="D147" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="H147" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I147">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4288,17 +4232,17 @@
       <c r="B148" t="s">
         <v>9</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4">
+        <v>44535</v>
+      </c>
+      <c r="D148" t="s">
+        <v>60</v>
+      </c>
+      <c r="H148" t="s">
         <v>51</v>
       </c>
-      <c r="D148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H148" t="s">
-        <v>89</v>
-      </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -4308,17 +4252,17 @@
       <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="C149" t="s">
-        <v>51</v>
+      <c r="C149" s="4">
+        <v>44534</v>
       </c>
       <c r="D149" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -4328,37 +4272,37 @@
       <c r="B150" t="s">
         <v>9</v>
       </c>
-      <c r="C150" t="s">
-        <v>51</v>
+      <c r="C150" s="4">
+        <v>44534</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H150" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="I150">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
       </c>
-      <c r="C151" t="s">
-        <v>51</v>
+      <c r="C151" s="4">
+        <v>44541</v>
       </c>
       <c r="D151" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="H151" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I151">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -4368,14 +4312,14 @@
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="C152" t="s">
-        <v>52</v>
+      <c r="C152" s="4">
+        <v>44541</v>
       </c>
       <c r="D152" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H152" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I152">
         <v>-1.75</v>
@@ -4388,17 +4332,17 @@
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D153" t="s">
         <v>52</v>
       </c>
-      <c r="D153" t="s">
-        <v>87</v>
-      </c>
       <c r="H153" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I153">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -4408,17 +4352,17 @@
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154" t="s">
-        <v>52</v>
+      <c r="C154" s="4">
+        <v>44542</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H154" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="I154">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -4428,17 +4372,17 @@
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155" t="s">
-        <v>52</v>
+      <c r="C155" s="4">
+        <v>44541</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H155" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I155">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -4448,17 +4392,17 @@
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="C156" t="s">
-        <v>52</v>
+      <c r="C156" s="4">
+        <v>44542</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H156" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I156">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -4468,14 +4412,14 @@
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="C157" t="s">
-        <v>52</v>
+      <c r="C157" s="4">
+        <v>44541</v>
       </c>
       <c r="D157" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H157" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I157">
         <v>-0.75</v>
@@ -4488,17 +4432,17 @@
       <c r="B158" t="s">
         <v>9</v>
       </c>
-      <c r="C158" t="s">
-        <v>52</v>
+      <c r="C158" s="4">
+        <v>44540</v>
       </c>
       <c r="D158" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="H158" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="I158">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -4508,37 +4452,37 @@
       <c r="B159" t="s">
         <v>9</v>
       </c>
-      <c r="C159" t="s">
-        <v>52</v>
+      <c r="C159" s="4">
+        <v>44541</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I159">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="C160" s="4">
+        <v>44545</v>
       </c>
       <c r="D160" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H160" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I160">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -4548,17 +4492,17 @@
       <c r="B161" t="s">
         <v>12</v>
       </c>
-      <c r="C161" t="s">
-        <v>53</v>
+      <c r="C161" s="4">
+        <v>44544</v>
       </c>
       <c r="D161" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H161" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I161">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -4568,17 +4512,17 @@
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" t="s">
-        <v>53</v>
+      <c r="C162" s="4">
+        <v>44545</v>
       </c>
       <c r="D162" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H162" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I162">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,17 +4532,17 @@
       <c r="B163" t="s">
         <v>12</v>
       </c>
-      <c r="C163" t="s">
-        <v>53</v>
+      <c r="C163" s="4">
+        <v>44545</v>
       </c>
       <c r="D163" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H163" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -4606,19 +4550,19 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C164" s="4">
+        <v>44544</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H164" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I164">
-        <v>0.75</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -4626,19 +4570,19 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C165" s="4">
+        <v>44546</v>
       </c>
       <c r="D165" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H165" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I165">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -4646,3673 +4590,3847 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C166" s="4">
+        <v>44546</v>
       </c>
       <c r="D166" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H166" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I166">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="C167" s="4">
+        <v>44548</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H167" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I167">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4">
+        <v>44549</v>
+      </c>
+      <c r="D168" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" t="s">
         <v>54</v>
       </c>
-      <c r="D168" t="s">
-        <v>89</v>
-      </c>
-      <c r="H168" t="s">
-        <v>91</v>
-      </c>
       <c r="I168">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="C169" s="4">
+        <v>44549</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="H169" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I169">
-        <v>-2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="C170" s="4">
+        <v>44549</v>
       </c>
       <c r="D170" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H170" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I170">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C171" s="4">
+        <v>44556</v>
       </c>
       <c r="D171" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H171" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="I171" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C172" s="4">
+        <v>44556</v>
       </c>
       <c r="D172" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H172" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1.25</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C173" s="4">
+        <v>44556</v>
       </c>
       <c r="D173" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H173" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="I173" s="2">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C174" s="4">
+        <v>44557</v>
       </c>
       <c r="D174" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H174" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1.25</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C175" s="4">
+        <v>44556</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="H175" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="I175" s="2">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="4">
+        <v>44556</v>
+      </c>
+      <c r="D176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H176" t="s">
+        <v>54</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="4">
+        <v>44556</v>
+      </c>
+      <c r="D177" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" t="s">
+        <v>62</v>
+      </c>
+      <c r="I177" s="2">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="4">
+        <v>44559</v>
+      </c>
+      <c r="D178" t="s">
+        <v>54</v>
+      </c>
+      <c r="H178" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="2">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="4">
+        <v>44558</v>
+      </c>
+      <c r="D179" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" t="s">
+        <v>58</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="4">
+        <v>44558</v>
+      </c>
+      <c r="D180" t="s">
+        <v>53</v>
+      </c>
+      <c r="H180" t="s">
+        <v>68</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="4">
+        <v>44558</v>
+      </c>
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="H181" t="s">
+        <v>56</v>
+      </c>
+      <c r="I181" s="2">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="4">
+        <v>44560</v>
+      </c>
+      <c r="D182" t="s">
+        <v>50</v>
+      </c>
+      <c r="H182" t="s">
+        <v>52</v>
+      </c>
+      <c r="I182" s="2">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>20</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="4">
+        <v>44559</v>
+      </c>
+      <c r="D183" t="s">
+        <v>49</v>
+      </c>
+      <c r="H183" t="s">
+        <v>61</v>
+      </c>
+      <c r="I183" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="4">
+        <v>44558</v>
+      </c>
+      <c r="D184" t="s">
+        <v>51</v>
+      </c>
+      <c r="H184" t="s">
+        <v>59</v>
+      </c>
+      <c r="I184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="4">
+        <v>44563</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="4">
+        <v>44563</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I186">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="4">
+        <v>44563</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D176" t="s">
-        <v>96</v>
-      </c>
-      <c r="H176" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>18</v>
-      </c>
-      <c r="B177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I188">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="4">
+        <v>44563</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I190">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="4">
+        <v>44564</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="4">
+        <v>44572</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I193">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="4">
+        <v>44573</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I194">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>22</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="4">
+        <v>44575</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I195">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>22</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="4">
+        <v>44577</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I196">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>22</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="4">
+        <v>44576</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>22</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="4">
+        <v>44576</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I198">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="4">
+        <v>44577</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I199">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="4">
+        <v>44576</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I200">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>22</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="4">
+        <v>44576</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D177" t="s">
-        <v>86</v>
-      </c>
-      <c r="H177" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>18</v>
-      </c>
-      <c r="B178" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="I201">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>22</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="4">
+        <v>44576</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I202">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>22</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="4">
+        <v>44579</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I203">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>22</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="4">
+        <v>44580</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I204">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>22</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="4">
+        <v>44580</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I205">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="4">
+        <v>44583</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I206">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="4">
+        <v>44584</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="4">
+        <v>44584</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I208">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>23</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="4">
+        <v>44583</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I209">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>23</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="4">
+        <v>44583</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I210">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>23</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="4">
+        <v>44584</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="4">
+        <v>44583</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I212">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="4">
+        <v>44583</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D178" t="s">
-        <v>81</v>
-      </c>
-      <c r="H178" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>18</v>
-      </c>
-      <c r="B179" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>23</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="4">
+        <v>44584</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I214">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>23</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="4">
+        <v>44582</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I215">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>23</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="4">
+        <v>44597</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I216">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="4">
+        <v>44600</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>24</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="4">
+        <v>44601</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I218">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>24</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="4">
+        <v>44601</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I219">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>24</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="4">
+        <v>44600</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>24</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="4">
+        <v>44602</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>24</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="4">
+        <v>44601</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I222" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>24</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="4">
+        <v>44600</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D179" t="s">
-        <v>88</v>
-      </c>
-      <c r="H179" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>18</v>
-      </c>
-      <c r="B180" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>24</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="4">
+        <v>44601</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I224">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>24</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="4">
+        <v>44602</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I225">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="4">
+        <v>44604</v>
+      </c>
+      <c r="D226" t="s">
+        <v>50</v>
+      </c>
+      <c r="H226" t="s">
+        <v>65</v>
+      </c>
+      <c r="I226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="4">
+        <v>44605</v>
+      </c>
+      <c r="D227" t="s">
+        <v>52</v>
+      </c>
+      <c r="H227" t="s">
+        <v>59</v>
+      </c>
+      <c r="I227">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>25</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="4">
+        <v>44605</v>
+      </c>
+      <c r="D228" t="s">
+        <v>58</v>
+      </c>
+      <c r="H228" t="s">
+        <v>66</v>
+      </c>
+      <c r="I228">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>25</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="4">
+        <v>44605</v>
+      </c>
+      <c r="D229" t="s">
+        <v>51</v>
+      </c>
+      <c r="H229" t="s">
+        <v>68</v>
+      </c>
+      <c r="I229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>25</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="4">
+        <v>44605</v>
+      </c>
+      <c r="D230" t="s">
+        <v>57</v>
+      </c>
+      <c r="H230" t="s">
+        <v>60</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>25</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="4">
+        <v>44604</v>
+      </c>
+      <c r="D231" t="s">
         <v>55</v>
       </c>
-      <c r="D180" t="s">
-        <v>83</v>
-      </c>
-      <c r="H180" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>19</v>
-      </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="H231" t="s">
+        <v>63</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>25</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="4">
+        <v>44604</v>
+      </c>
+      <c r="D232" t="s">
+        <v>49</v>
+      </c>
+      <c r="H232" t="s">
+        <v>62</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>25</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="4">
+        <v>44607</v>
+      </c>
+      <c r="D233" t="s">
+        <v>50</v>
+      </c>
+      <c r="H233" t="s">
+        <v>64</v>
+      </c>
+      <c r="I233">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>25</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="4">
+        <v>44604</v>
+      </c>
+      <c r="D234" t="s">
+        <v>53</v>
+      </c>
+      <c r="H234" t="s">
+        <v>64</v>
+      </c>
+      <c r="I234">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>25</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="4">
+        <v>44604</v>
+      </c>
+      <c r="D235" t="s">
         <v>56</v>
       </c>
-      <c r="D181" t="s">
-        <v>89</v>
-      </c>
-      <c r="H181" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>19</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="H235" t="s">
+        <v>61</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>26</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="4">
+        <v>44612</v>
+      </c>
+      <c r="D236" t="s">
+        <v>63</v>
+      </c>
+      <c r="H236" t="s">
+        <v>50</v>
+      </c>
+      <c r="I236">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>26</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D237" t="s">
+        <v>65</v>
+      </c>
+      <c r="H237" t="s">
+        <v>55</v>
+      </c>
+      <c r="I237">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>26</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D238" t="s">
+        <v>61</v>
+      </c>
+      <c r="H238" t="s">
+        <v>58</v>
+      </c>
+      <c r="I238">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>26</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D239" t="s">
+        <v>67</v>
+      </c>
+      <c r="H239" t="s">
+        <v>49</v>
+      </c>
+      <c r="I239">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>26</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D240" t="s">
+        <v>60</v>
+      </c>
+      <c r="H240" t="s">
+        <v>53</v>
+      </c>
+      <c r="I240">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>26</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D241" t="s">
+        <v>59</v>
+      </c>
+      <c r="H241" t="s">
         <v>56</v>
       </c>
-      <c r="D182" t="s">
-        <v>84</v>
-      </c>
-      <c r="H182" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>19</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="I241">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>26</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D242" t="s">
+        <v>62</v>
+      </c>
+      <c r="H242" t="s">
+        <v>54</v>
+      </c>
+      <c r="I242">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>26</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D243" t="s">
+        <v>68</v>
+      </c>
+      <c r="H243" t="s">
+        <v>57</v>
+      </c>
+      <c r="I243">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>26</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="4">
+        <v>44612</v>
+      </c>
+      <c r="D244" t="s">
+        <v>66</v>
+      </c>
+      <c r="H244" t="s">
+        <v>51</v>
+      </c>
+      <c r="I244">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>26</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="4">
+        <v>44611</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="H245" t="s">
+        <v>52</v>
+      </c>
+      <c r="I245">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>26</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="4">
+        <v>44615</v>
+      </c>
+      <c r="D246" t="s">
+        <v>52</v>
+      </c>
+      <c r="H246" t="s">
+        <v>58</v>
+      </c>
+      <c r="I246">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>26</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="4">
+        <v>44615</v>
+      </c>
+      <c r="D247" t="s">
+        <v>53</v>
+      </c>
+      <c r="H247" t="s">
+        <v>62</v>
+      </c>
+      <c r="I247">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>26</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="4">
+        <v>44615</v>
+      </c>
+      <c r="D248" t="s">
+        <v>59</v>
+      </c>
+      <c r="H248" t="s">
+        <v>63</v>
+      </c>
+      <c r="I248">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>26</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="4">
+        <v>44616</v>
+      </c>
+      <c r="D249" t="s">
+        <v>67</v>
+      </c>
+      <c r="H249" t="s">
+        <v>66</v>
+      </c>
+      <c r="I249">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>27</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="4">
+        <v>44617</v>
+      </c>
+      <c r="D250" t="s">
+        <v>65</v>
+      </c>
+      <c r="H250" t="s">
         <v>56</v>
       </c>
-      <c r="D183" t="s">
-        <v>96</v>
-      </c>
-      <c r="H183" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>19</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" t="s">
-        <v>56</v>
-      </c>
-      <c r="D184" t="s">
-        <v>85</v>
-      </c>
-      <c r="H184" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>19</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" t="s">
-        <v>56</v>
-      </c>
-      <c r="D185" t="s">
-        <v>80</v>
-      </c>
-      <c r="H185" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>19</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" t="s">
-        <v>56</v>
-      </c>
-      <c r="D186" t="s">
-        <v>92</v>
-      </c>
-      <c r="H186" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>19</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" t="s">
-        <v>56</v>
-      </c>
-      <c r="D187" t="s">
-        <v>88</v>
-      </c>
-      <c r="H187" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>19</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" t="s">
-        <v>56</v>
-      </c>
-      <c r="D188" t="s">
-        <v>94</v>
-      </c>
-      <c r="H188" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>19</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" t="s">
-        <v>56</v>
-      </c>
-      <c r="D189" t="s">
-        <v>86</v>
-      </c>
-      <c r="H189" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>19</v>
-      </c>
-      <c r="B190" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190" t="s">
-        <v>56</v>
-      </c>
-      <c r="D190" t="s">
-        <v>87</v>
-      </c>
-      <c r="H190" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>20</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>27</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D251" t="s">
+        <v>63</v>
+      </c>
+      <c r="H251" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>27</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="H252" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>27</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D253" t="s">
+        <v>49</v>
+      </c>
+      <c r="H253" t="s">
         <v>57</v>
       </c>
-      <c r="D191" t="s">
-        <v>82</v>
-      </c>
-      <c r="H191" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>20</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>57</v>
-      </c>
-      <c r="D192" t="s">
-        <v>83</v>
-      </c>
-      <c r="H192" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>20</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>57</v>
-      </c>
-      <c r="D193" t="s">
-        <v>93</v>
-      </c>
-      <c r="H193" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>20</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>57</v>
-      </c>
-      <c r="D194" t="s">
-        <v>81</v>
-      </c>
-      <c r="H194" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>20</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>57</v>
-      </c>
-      <c r="D195" t="s">
-        <v>90</v>
-      </c>
-      <c r="H195" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>20</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>57</v>
-      </c>
-      <c r="D196" t="s">
-        <v>78</v>
-      </c>
-      <c r="H196" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>57</v>
-      </c>
-      <c r="D197" t="s">
-        <v>91</v>
-      </c>
-      <c r="H197" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>20</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>57</v>
-      </c>
-      <c r="D198" t="s">
-        <v>77</v>
-      </c>
-      <c r="H198" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>20</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>57</v>
-      </c>
-      <c r="D199" t="s">
-        <v>79</v>
-      </c>
-      <c r="H199" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>20</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>57</v>
-      </c>
-      <c r="D200" t="s">
-        <v>95</v>
-      </c>
-      <c r="H200" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>21</v>
-      </c>
-      <c r="B201" t="s">
-        <v>9</v>
-      </c>
-      <c r="C201" t="s">
-        <v>58</v>
-      </c>
-      <c r="D201" t="s">
-        <v>79</v>
-      </c>
-      <c r="H201" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>21</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>58</v>
-      </c>
-      <c r="D202" t="s">
-        <v>77</v>
-      </c>
-      <c r="H202" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>21</v>
-      </c>
-      <c r="B203" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203" t="s">
-        <v>58</v>
-      </c>
-      <c r="D203" t="s">
-        <v>91</v>
-      </c>
-      <c r="H203" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>21</v>
-      </c>
-      <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" t="s">
-        <v>58</v>
-      </c>
-      <c r="D204" t="s">
-        <v>83</v>
-      </c>
-      <c r="H204" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>21</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" t="s">
-        <v>90</v>
-      </c>
-      <c r="H205" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>21</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>58</v>
-      </c>
-      <c r="D206" t="s">
-        <v>82</v>
-      </c>
-      <c r="H206" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>21</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9</v>
-      </c>
-      <c r="C207" t="s">
-        <v>58</v>
-      </c>
-      <c r="D207" t="s">
-        <v>95</v>
-      </c>
-      <c r="H207" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>21</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" t="s">
-        <v>58</v>
-      </c>
-      <c r="D208" t="s">
-        <v>93</v>
-      </c>
-      <c r="H208" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>21</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" t="s">
-        <v>58</v>
-      </c>
-      <c r="D209" t="s">
-        <v>81</v>
-      </c>
-      <c r="H209" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>21</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" t="s">
-        <v>58</v>
-      </c>
-      <c r="D210" t="s">
-        <v>78</v>
-      </c>
-      <c r="H210" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>22</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>27</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D254" t="s">
+        <v>62</v>
+      </c>
+      <c r="H254" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>27</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D255" t="s">
+        <v>50</v>
+      </c>
+      <c r="H255" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D256" t="s">
+        <v>67</v>
+      </c>
+      <c r="H256" t="s">
         <v>59</v>
-      </c>
-      <c r="D211" t="s">
-        <v>96</v>
-      </c>
-      <c r="H211" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>22</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" t="s">
-        <v>59</v>
-      </c>
-      <c r="D212" t="s">
-        <v>92</v>
-      </c>
-      <c r="H212" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>22</v>
-      </c>
-      <c r="B213" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" t="s">
-        <v>59</v>
-      </c>
-      <c r="D213" t="s">
-        <v>88</v>
-      </c>
-      <c r="H213" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>22</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" t="s">
-        <v>59</v>
-      </c>
-      <c r="D214" t="s">
-        <v>85</v>
-      </c>
-      <c r="H214" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>22</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" t="s">
-        <v>59</v>
-      </c>
-      <c r="D215" t="s">
-        <v>87</v>
-      </c>
-      <c r="H215" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>22</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216" t="s">
-        <v>59</v>
-      </c>
-      <c r="D216" t="s">
-        <v>94</v>
-      </c>
-      <c r="H216" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>22</v>
-      </c>
-      <c r="B217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" t="s">
-        <v>59</v>
-      </c>
-      <c r="D217" t="s">
-        <v>84</v>
-      </c>
-      <c r="H217" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>22</v>
-      </c>
-      <c r="B218" t="s">
-        <v>9</v>
-      </c>
-      <c r="C218" t="s">
-        <v>59</v>
-      </c>
-      <c r="D218" t="s">
-        <v>89</v>
-      </c>
-      <c r="H218" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>22</v>
-      </c>
-      <c r="B219" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" t="s">
-        <v>59</v>
-      </c>
-      <c r="D219" t="s">
-        <v>86</v>
-      </c>
-      <c r="H219" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>22</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" t="s">
-        <v>59</v>
-      </c>
-      <c r="D220" t="s">
-        <v>80</v>
-      </c>
-      <c r="H220" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>23</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" t="s">
-        <v>60</v>
-      </c>
-      <c r="D221" t="s">
-        <v>77</v>
-      </c>
-      <c r="H221" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>23</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" t="s">
-        <v>60</v>
-      </c>
-      <c r="D222" t="s">
-        <v>90</v>
-      </c>
-      <c r="H222" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>23</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" t="s">
-        <v>60</v>
-      </c>
-      <c r="D223" t="s">
-        <v>95</v>
-      </c>
-      <c r="H223" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>23</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" t="s">
-        <v>60</v>
-      </c>
-      <c r="D224" t="s">
-        <v>93</v>
-      </c>
-      <c r="H224" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>23</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" t="s">
-        <v>60</v>
-      </c>
-      <c r="D225" t="s">
-        <v>78</v>
-      </c>
-      <c r="H225" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>23</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" t="s">
-        <v>60</v>
-      </c>
-      <c r="D226" t="s">
-        <v>79</v>
-      </c>
-      <c r="H226" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>23</v>
-      </c>
-      <c r="B227" t="s">
-        <v>9</v>
-      </c>
-      <c r="C227" t="s">
-        <v>60</v>
-      </c>
-      <c r="D227" t="s">
-        <v>91</v>
-      </c>
-      <c r="H227" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>23</v>
-      </c>
-      <c r="B228" t="s">
-        <v>9</v>
-      </c>
-      <c r="C228" t="s">
-        <v>60</v>
-      </c>
-      <c r="D228" t="s">
-        <v>83</v>
-      </c>
-      <c r="H228" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>23</v>
-      </c>
-      <c r="B229" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" t="s">
-        <v>60</v>
-      </c>
-      <c r="D229" t="s">
-        <v>82</v>
-      </c>
-      <c r="H229" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>23</v>
-      </c>
-      <c r="B230" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" t="s">
-        <v>60</v>
-      </c>
-      <c r="D230" t="s">
-        <v>81</v>
-      </c>
-      <c r="H230" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>24</v>
-      </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
-        <v>61</v>
-      </c>
-      <c r="D231" t="s">
-        <v>80</v>
-      </c>
-      <c r="H231" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>24</v>
-      </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>61</v>
-      </c>
-      <c r="D232" t="s">
-        <v>92</v>
-      </c>
-      <c r="H232" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>24</v>
-      </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>61</v>
-      </c>
-      <c r="D233" t="s">
-        <v>88</v>
-      </c>
-      <c r="H233" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>24</v>
-      </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>61</v>
-      </c>
-      <c r="D234" t="s">
-        <v>84</v>
-      </c>
-      <c r="H234" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>24</v>
-      </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
-        <v>61</v>
-      </c>
-      <c r="D235" t="s">
-        <v>96</v>
-      </c>
-      <c r="H235" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>24</v>
-      </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>61</v>
-      </c>
-      <c r="D236" t="s">
-        <v>94</v>
-      </c>
-      <c r="H236" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>24</v>
-      </c>
-      <c r="B237" t="s">
-        <v>13</v>
-      </c>
-      <c r="C237" t="s">
-        <v>62</v>
-      </c>
-      <c r="D237" t="s">
-        <v>86</v>
-      </c>
-      <c r="H237" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>24</v>
-      </c>
-      <c r="B238" t="s">
-        <v>13</v>
-      </c>
-      <c r="C238" t="s">
-        <v>62</v>
-      </c>
-      <c r="D238" t="s">
-        <v>85</v>
-      </c>
-      <c r="H238" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>24</v>
-      </c>
-      <c r="B239" t="s">
-        <v>13</v>
-      </c>
-      <c r="C239" t="s">
-        <v>62</v>
-      </c>
-      <c r="D239" t="s">
-        <v>89</v>
-      </c>
-      <c r="H239" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>24</v>
-      </c>
-      <c r="B240" t="s">
-        <v>13</v>
-      </c>
-      <c r="C240" t="s">
-        <v>62</v>
-      </c>
-      <c r="D240" t="s">
-        <v>87</v>
-      </c>
-      <c r="H240" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>25</v>
-      </c>
-      <c r="B241" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" t="s">
-        <v>63</v>
-      </c>
-      <c r="D241" t="s">
-        <v>78</v>
-      </c>
-      <c r="H241" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>25</v>
-      </c>
-      <c r="B242" t="s">
-        <v>9</v>
-      </c>
-      <c r="C242" t="s">
-        <v>63</v>
-      </c>
-      <c r="D242" t="s">
-        <v>80</v>
-      </c>
-      <c r="H242" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>25</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="C243" t="s">
-        <v>63</v>
-      </c>
-      <c r="D243" t="s">
-        <v>86</v>
-      </c>
-      <c r="H243" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>25</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" t="s">
-        <v>63</v>
-      </c>
-      <c r="D244" t="s">
-        <v>79</v>
-      </c>
-      <c r="H244" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>25</v>
-      </c>
-      <c r="B245" t="s">
-        <v>9</v>
-      </c>
-      <c r="C245" t="s">
-        <v>63</v>
-      </c>
-      <c r="D245" t="s">
-        <v>85</v>
-      </c>
-      <c r="H245" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>25</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" t="s">
-        <v>63</v>
-      </c>
-      <c r="D246" t="s">
-        <v>83</v>
-      </c>
-      <c r="H246" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>25</v>
-      </c>
-      <c r="B247" t="s">
-        <v>9</v>
-      </c>
-      <c r="C247" t="s">
-        <v>63</v>
-      </c>
-      <c r="D247" t="s">
-        <v>77</v>
-      </c>
-      <c r="H247" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>25</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C248" t="s">
-        <v>63</v>
-      </c>
-      <c r="D248" t="s">
-        <v>82</v>
-      </c>
-      <c r="H248" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>25</v>
-      </c>
-      <c r="B249" t="s">
-        <v>9</v>
-      </c>
-      <c r="C249" t="s">
-        <v>63</v>
-      </c>
-      <c r="D249" t="s">
-        <v>81</v>
-      </c>
-      <c r="H249" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>25</v>
-      </c>
-      <c r="B250" t="s">
-        <v>9</v>
-      </c>
-      <c r="C250" t="s">
-        <v>63</v>
-      </c>
-      <c r="D250" t="s">
-        <v>84</v>
-      </c>
-      <c r="H250" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>26</v>
-      </c>
-      <c r="B251" t="s">
-        <v>9</v>
-      </c>
-      <c r="C251" t="s">
-        <v>64</v>
-      </c>
-      <c r="D251" t="s">
-        <v>91</v>
-      </c>
-      <c r="H251" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>26</v>
-      </c>
-      <c r="B252" t="s">
-        <v>9</v>
-      </c>
-      <c r="C252" t="s">
-        <v>64</v>
-      </c>
-      <c r="D252" t="s">
-        <v>93</v>
-      </c>
-      <c r="H252" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>26</v>
-      </c>
-      <c r="B253" t="s">
-        <v>9</v>
-      </c>
-      <c r="C253" t="s">
-        <v>64</v>
-      </c>
-      <c r="D253" t="s">
-        <v>89</v>
-      </c>
-      <c r="H253" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>26</v>
-      </c>
-      <c r="B254" t="s">
-        <v>9</v>
-      </c>
-      <c r="C254" t="s">
-        <v>64</v>
-      </c>
-      <c r="D254" t="s">
-        <v>95</v>
-      </c>
-      <c r="H254" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>26</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9</v>
-      </c>
-      <c r="C255" t="s">
-        <v>64</v>
-      </c>
-      <c r="D255" t="s">
-        <v>88</v>
-      </c>
-      <c r="H255" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>26</v>
-      </c>
-      <c r="B256" t="s">
-        <v>9</v>
-      </c>
-      <c r="C256" t="s">
-        <v>64</v>
-      </c>
-      <c r="D256" t="s">
-        <v>87</v>
-      </c>
-      <c r="H256" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
         <v>9</v>
       </c>
-      <c r="C257" t="s">
-        <v>64</v>
+      <c r="C257" s="4">
+        <v>44618</v>
       </c>
       <c r="D257" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H257" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B258" t="s">
         <v>9</v>
       </c>
-      <c r="C258" t="s">
-        <v>64</v>
+      <c r="C258" s="4">
+        <v>44619</v>
       </c>
       <c r="D258" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H258" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B259" t="s">
         <v>9</v>
       </c>
-      <c r="C259" t="s">
-        <v>64</v>
+      <c r="C259" s="4">
+        <v>44619</v>
       </c>
       <c r="D259" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="H259" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
       </c>
-      <c r="C260" t="s">
-        <v>64</v>
+      <c r="C260" s="4">
+        <v>44625</v>
       </c>
       <c r="D260" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H260" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
       </c>
-      <c r="C261" t="s">
-        <v>65</v>
+      <c r="C261" s="4">
+        <v>44625</v>
       </c>
       <c r="D261" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="H261" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
       </c>
-      <c r="C262" t="s">
-        <v>65</v>
+      <c r="C262" s="4">
+        <v>44625</v>
       </c>
       <c r="D262" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H262" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
       </c>
-      <c r="C263" t="s">
-        <v>65</v>
+      <c r="C263" s="4">
+        <v>44625</v>
       </c>
       <c r="D263" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H263" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="4">
+        <v>44625</v>
+      </c>
+      <c r="D264" t="s">
+        <v>60</v>
+      </c>
+      <c r="H264" t="s">
         <v>65</v>
-      </c>
-      <c r="D264" t="s">
-        <v>77</v>
-      </c>
-      <c r="H264" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
       </c>
-      <c r="C265" t="s">
-        <v>65</v>
+      <c r="C265" s="4">
+        <v>44625</v>
       </c>
       <c r="D265" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H265" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B266" t="s">
         <v>9</v>
       </c>
-      <c r="C266" t="s">
-        <v>65</v>
+      <c r="C266" s="4">
+        <v>44625</v>
       </c>
       <c r="D266" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H266" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B267" t="s">
         <v>9</v>
       </c>
-      <c r="C267" t="s">
-        <v>65</v>
+      <c r="C267" s="4">
+        <v>44626</v>
       </c>
       <c r="D267" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H267" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B268" t="s">
         <v>9</v>
       </c>
-      <c r="C268" t="s">
-        <v>65</v>
+      <c r="C268" s="4">
+        <v>44626</v>
       </c>
       <c r="D268" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H268" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B269" t="s">
         <v>9</v>
       </c>
-      <c r="C269" t="s">
-        <v>65</v>
+      <c r="C269" s="4">
+        <v>44627</v>
       </c>
       <c r="D269" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H269" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B270" t="s">
         <v>9</v>
       </c>
-      <c r="C270" t="s">
-        <v>65</v>
+      <c r="C270" s="4">
+        <v>44632</v>
       </c>
       <c r="D270" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="H270" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B271" t="s">
         <v>9</v>
       </c>
-      <c r="C271" t="s">
-        <v>66</v>
+      <c r="C271" s="4">
+        <v>44632</v>
       </c>
       <c r="D271" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H271" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B272" t="s">
         <v>9</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="4">
+        <v>44632</v>
+      </c>
+      <c r="D272" t="s">
+        <v>55</v>
+      </c>
+      <c r="H272" t="s">
         <v>66</v>
-      </c>
-      <c r="D272" t="s">
-        <v>79</v>
-      </c>
-      <c r="H272" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B273" t="s">
         <v>9</v>
       </c>
-      <c r="C273" t="s">
-        <v>66</v>
+      <c r="C273" s="4">
+        <v>44632</v>
       </c>
       <c r="D273" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H273" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B274" t="s">
         <v>9</v>
       </c>
-      <c r="C274" t="s">
-        <v>66</v>
+      <c r="C274" s="4">
+        <v>44632</v>
       </c>
       <c r="D274" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H274" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B275" t="s">
         <v>9</v>
       </c>
-      <c r="C275" t="s">
-        <v>66</v>
+      <c r="C275" s="4">
+        <v>44632</v>
       </c>
       <c r="D275" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H275" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B276" t="s">
         <v>9</v>
       </c>
-      <c r="C276" t="s">
-        <v>66</v>
+      <c r="C276" s="4">
+        <v>44633</v>
       </c>
       <c r="D276" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H276" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
       </c>
-      <c r="C277" t="s">
-        <v>66</v>
+      <c r="C277" s="4">
+        <v>44633</v>
       </c>
       <c r="D277" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H277" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B278" t="s">
         <v>9</v>
       </c>
-      <c r="C278" t="s">
-        <v>66</v>
+      <c r="C278" s="4">
+        <v>44633</v>
       </c>
       <c r="D278" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H278" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B279" t="s">
         <v>9</v>
       </c>
-      <c r="C279" t="s">
-        <v>66</v>
+      <c r="C279" s="4">
+        <v>44634</v>
       </c>
       <c r="D279" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H279" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B280" t="s">
         <v>9</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="4">
+        <v>44638</v>
+      </c>
+      <c r="D280" t="s">
         <v>66</v>
       </c>
-      <c r="D280" t="s">
-        <v>94</v>
-      </c>
       <c r="H280" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="4">
+        <v>44639</v>
+      </c>
+      <c r="D281" t="s">
+        <v>60</v>
+      </c>
+      <c r="H281" t="s">
         <v>67</v>
-      </c>
-      <c r="D281" t="s">
-        <v>78</v>
-      </c>
-      <c r="H281" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B282" t="s">
         <v>9</v>
       </c>
-      <c r="C282" t="s">
-        <v>67</v>
+      <c r="C282" s="4">
+        <v>44639</v>
       </c>
       <c r="D282" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H282" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
       </c>
-      <c r="C283" t="s">
-        <v>67</v>
+      <c r="C283" s="4">
+        <v>44639</v>
       </c>
       <c r="D283" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H283" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B284" t="s">
         <v>9</v>
       </c>
-      <c r="C284" t="s">
-        <v>67</v>
+      <c r="C284" s="4">
+        <v>44639</v>
       </c>
       <c r="D284" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H284" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
       </c>
-      <c r="C285" t="s">
-        <v>67</v>
+      <c r="C285" s="4">
+        <v>44639</v>
       </c>
       <c r="D285" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H285" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
       </c>
-      <c r="C286" t="s">
-        <v>67</v>
+      <c r="C286" s="4">
+        <v>44639</v>
       </c>
       <c r="D286" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H286" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
       </c>
-      <c r="C287" t="s">
-        <v>67</v>
+      <c r="C287" s="4">
+        <v>44639</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H287" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
-      <c r="C288" t="s">
-        <v>67</v>
+      <c r="C288" s="4">
+        <v>44640</v>
       </c>
       <c r="D288" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H288" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
       </c>
-      <c r="C289" t="s">
-        <v>67</v>
+      <c r="C289" s="4">
+        <v>44640</v>
       </c>
       <c r="D289" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H289" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
-      <c r="C290" t="s">
-        <v>67</v>
+      <c r="C290" s="4">
+        <v>44653</v>
       </c>
       <c r="D290" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H290" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
-      <c r="C291" t="s">
-        <v>68</v>
+      <c r="C291" s="4">
+        <v>44653</v>
       </c>
       <c r="D291" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H291" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
       </c>
-      <c r="C292" t="s">
-        <v>68</v>
+      <c r="C292" s="4">
+        <v>44653</v>
       </c>
       <c r="D292" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H292" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="4">
+        <v>44653</v>
+      </c>
+      <c r="D293" t="s">
         <v>68</v>
       </c>
-      <c r="D293" t="s">
-        <v>84</v>
-      </c>
       <c r="H293" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
       </c>
-      <c r="C294" t="s">
-        <v>68</v>
+      <c r="C294" s="4">
+        <v>44653</v>
       </c>
       <c r="D294" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H294" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
       </c>
-      <c r="C295" t="s">
-        <v>68</v>
+      <c r="C295" s="4">
+        <v>44653</v>
       </c>
       <c r="D295" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H295" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
       </c>
-      <c r="C296" t="s">
-        <v>68</v>
+      <c r="C296" s="4">
+        <v>44653</v>
       </c>
       <c r="D296" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H296" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B297" t="s">
         <v>9</v>
       </c>
-      <c r="C297" t="s">
-        <v>68</v>
+      <c r="C297" s="4">
+        <v>44653</v>
       </c>
       <c r="D297" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H297" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
       </c>
-      <c r="C298" t="s">
-        <v>68</v>
+      <c r="C298" s="4">
+        <v>44653</v>
       </c>
       <c r="D298" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H298" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B299" t="s">
         <v>9</v>
       </c>
-      <c r="C299" t="s">
-        <v>68</v>
+      <c r="C299" s="4">
+        <v>44653</v>
       </c>
       <c r="D299" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H299" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
       </c>
-      <c r="C300" t="s">
-        <v>68</v>
+      <c r="C300" s="4">
+        <v>44660</v>
       </c>
       <c r="D300" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H300" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
       </c>
-      <c r="C301" t="s">
-        <v>69</v>
+      <c r="C301" s="4">
+        <v>44660</v>
       </c>
       <c r="D301" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H301" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
       </c>
-      <c r="C302" t="s">
-        <v>69</v>
+      <c r="C302" s="4">
+        <v>44660</v>
       </c>
       <c r="D302" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H302" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
       </c>
-      <c r="C303" t="s">
-        <v>69</v>
+      <c r="C303" s="4">
+        <v>44660</v>
       </c>
       <c r="D303" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H303" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
       </c>
-      <c r="C304" t="s">
-        <v>69</v>
+      <c r="C304" s="4">
+        <v>44660</v>
       </c>
       <c r="D304" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="H304" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
       </c>
-      <c r="C305" t="s">
-        <v>69</v>
+      <c r="C305" s="4">
+        <v>44660</v>
       </c>
       <c r="D305" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H305" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B306" t="s">
         <v>9</v>
       </c>
-      <c r="C306" t="s">
-        <v>69</v>
+      <c r="C306" s="4">
+        <v>44660</v>
       </c>
       <c r="D306" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H306" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B307" t="s">
         <v>9</v>
       </c>
-      <c r="C307" t="s">
-        <v>69</v>
+      <c r="C307" s="4">
+        <v>44660</v>
       </c>
       <c r="D307" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H307" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
       </c>
-      <c r="C308" t="s">
-        <v>69</v>
+      <c r="C308" s="4">
+        <v>44660</v>
       </c>
       <c r="D308" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H308" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B309" t="s">
         <v>9</v>
       </c>
-      <c r="C309" t="s">
-        <v>69</v>
+      <c r="C309" s="4">
+        <v>44660</v>
       </c>
       <c r="D309" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H309" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
       </c>
-      <c r="C310" t="s">
-        <v>69</v>
+      <c r="C310" s="4">
+        <v>44667</v>
       </c>
       <c r="D310" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H310" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
       </c>
-      <c r="C311" t="s">
-        <v>70</v>
+      <c r="C311" s="4">
+        <v>44667</v>
       </c>
       <c r="D311" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H311" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
       </c>
-      <c r="C312" t="s">
-        <v>70</v>
+      <c r="C312" s="4">
+        <v>44667</v>
       </c>
       <c r="D312" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H312" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
       </c>
-      <c r="C313" t="s">
-        <v>70</v>
+      <c r="C313" s="4">
+        <v>44667</v>
       </c>
       <c r="D313" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H313" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
       </c>
-      <c r="C314" t="s">
-        <v>70</v>
+      <c r="C314" s="4">
+        <v>44667</v>
       </c>
       <c r="D314" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H314" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B315" t="s">
         <v>9</v>
       </c>
-      <c r="C315" t="s">
-        <v>70</v>
+      <c r="C315" s="4">
+        <v>44667</v>
       </c>
       <c r="D315" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H315" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
       </c>
-      <c r="C316" t="s">
-        <v>70</v>
+      <c r="C316" s="4">
+        <v>44667</v>
       </c>
       <c r="D316" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H316" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
       </c>
-      <c r="C317" t="s">
-        <v>70</v>
+      <c r="C317" s="4">
+        <v>44667</v>
       </c>
       <c r="D317" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H317" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
       </c>
-      <c r="C318" t="s">
-        <v>70</v>
+      <c r="C318" s="4">
+        <v>44667</v>
       </c>
       <c r="D318" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H318" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
       </c>
-      <c r="C319" t="s">
-        <v>70</v>
+      <c r="C319" s="4">
+        <v>44667</v>
       </c>
       <c r="D319" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H319" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
       </c>
-      <c r="C320" t="s">
-        <v>70</v>
+      <c r="C320" s="4">
+        <v>44674</v>
       </c>
       <c r="D320" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H320" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
       </c>
-      <c r="C321" t="s">
-        <v>71</v>
+      <c r="C321" s="4">
+        <v>44674</v>
       </c>
       <c r="D321" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H321" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
-      <c r="C322" t="s">
-        <v>71</v>
+      <c r="C322" s="4">
+        <v>44674</v>
       </c>
       <c r="D322" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H322" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
       </c>
-      <c r="C323" t="s">
-        <v>71</v>
+      <c r="C323" s="4">
+        <v>44674</v>
       </c>
       <c r="D323" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H323" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
       </c>
-      <c r="C324" t="s">
-        <v>71</v>
+      <c r="C324" s="4">
+        <v>44674</v>
       </c>
       <c r="D324" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H324" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
-      <c r="C325" t="s">
-        <v>71</v>
+      <c r="C325" s="4">
+        <v>44674</v>
       </c>
       <c r="D325" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H325" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B326" t="s">
         <v>9</v>
       </c>
-      <c r="C326" t="s">
-        <v>71</v>
+      <c r="C326" s="4">
+        <v>44674</v>
       </c>
       <c r="D326" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="H326" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B327" t="s">
         <v>9</v>
       </c>
-      <c r="C327" t="s">
-        <v>71</v>
+      <c r="C327" s="4">
+        <v>44674</v>
       </c>
       <c r="D327" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H327" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
       </c>
-      <c r="C328" t="s">
-        <v>71</v>
+      <c r="C328" s="4">
+        <v>44674</v>
       </c>
       <c r="D328" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H328" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B329" t="s">
         <v>9</v>
       </c>
-      <c r="C329" t="s">
-        <v>71</v>
+      <c r="C329" s="4">
+        <v>44674</v>
       </c>
       <c r="D329" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H329" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B330" t="s">
         <v>9</v>
       </c>
-      <c r="C330" t="s">
-        <v>71</v>
+      <c r="C330" s="4">
+        <v>44681</v>
       </c>
       <c r="D330" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H330" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B331" t="s">
         <v>9</v>
       </c>
-      <c r="C331" t="s">
-        <v>72</v>
+      <c r="C331" s="4">
+        <v>44681</v>
       </c>
       <c r="D331" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H331" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B332" t="s">
         <v>9</v>
       </c>
-      <c r="C332" t="s">
-        <v>72</v>
+      <c r="C332" s="4">
+        <v>44681</v>
       </c>
       <c r="D332" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H332" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B333" t="s">
         <v>9</v>
       </c>
-      <c r="C333" t="s">
-        <v>72</v>
+      <c r="C333" s="4">
+        <v>44681</v>
       </c>
       <c r="D333" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="H333" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B334" t="s">
         <v>9</v>
       </c>
-      <c r="C334" t="s">
-        <v>72</v>
+      <c r="C334" s="4">
+        <v>44681</v>
       </c>
       <c r="D334" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B335" t="s">
         <v>9</v>
       </c>
-      <c r="C335" t="s">
-        <v>72</v>
+      <c r="C335" s="4">
+        <v>44681</v>
       </c>
       <c r="D335" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H335" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B336" t="s">
         <v>9</v>
       </c>
-      <c r="C336" t="s">
-        <v>72</v>
+      <c r="C336" s="4">
+        <v>44681</v>
       </c>
       <c r="D336" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H336" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
       </c>
-      <c r="C337" t="s">
-        <v>72</v>
+      <c r="C337" s="4">
+        <v>44681</v>
       </c>
       <c r="D337" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H337" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B338" t="s">
         <v>9</v>
       </c>
-      <c r="C338" t="s">
-        <v>72</v>
+      <c r="C338" s="4">
+        <v>44681</v>
       </c>
       <c r="D338" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H338" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B339" t="s">
         <v>9</v>
       </c>
-      <c r="C339" t="s">
-        <v>72</v>
+      <c r="C339" s="4">
+        <v>44681</v>
       </c>
       <c r="D339" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H339" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B340" t="s">
         <v>9</v>
       </c>
-      <c r="C340" t="s">
-        <v>72</v>
+      <c r="C340" s="4">
+        <v>44688</v>
       </c>
       <c r="D340" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H340" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B341" t="s">
         <v>9</v>
       </c>
-      <c r="C341" t="s">
-        <v>73</v>
+      <c r="C341" s="4">
+        <v>44688</v>
       </c>
       <c r="D341" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H341" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B342" t="s">
         <v>9</v>
       </c>
-      <c r="C342" t="s">
-        <v>73</v>
+      <c r="C342" s="4">
+        <v>44688</v>
       </c>
       <c r="D342" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H342" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B343" t="s">
         <v>9</v>
       </c>
-      <c r="C343" t="s">
-        <v>73</v>
+      <c r="C343" s="4">
+        <v>44688</v>
       </c>
       <c r="D343" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H343" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B344" t="s">
         <v>9</v>
       </c>
-      <c r="C344" t="s">
-        <v>73</v>
+      <c r="C344" s="4">
+        <v>44688</v>
       </c>
       <c r="D344" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H344" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B345" t="s">
         <v>9</v>
       </c>
-      <c r="C345" t="s">
-        <v>73</v>
+      <c r="C345" s="4">
+        <v>44688</v>
       </c>
       <c r="D345" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H345" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B346" t="s">
         <v>9</v>
       </c>
-      <c r="C346" t="s">
-        <v>73</v>
+      <c r="C346" s="4">
+        <v>44688</v>
       </c>
       <c r="D346" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H346" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B347" t="s">
         <v>9</v>
       </c>
-      <c r="C347" t="s">
-        <v>73</v>
+      <c r="C347" s="4">
+        <v>44688</v>
       </c>
       <c r="D347" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H347" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B348" t="s">
         <v>9</v>
       </c>
-      <c r="C348" t="s">
-        <v>73</v>
+      <c r="C348" s="4">
+        <v>44688</v>
       </c>
       <c r="D348" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H348" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
       </c>
-      <c r="C349" t="s">
-        <v>73</v>
+      <c r="C349" s="4">
+        <v>44688</v>
       </c>
       <c r="D349" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H349" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
-      </c>
-      <c r="C350" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="C350" s="4">
+        <v>44696</v>
       </c>
       <c r="D350" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H350" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
-      </c>
-      <c r="C351" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C351" s="4">
+        <v>44696</v>
       </c>
       <c r="D351" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H351" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
-      </c>
-      <c r="C352" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C352" s="4">
+        <v>44696</v>
       </c>
       <c r="D352" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H352" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
-      </c>
-      <c r="C353" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C353" s="4">
+        <v>44696</v>
       </c>
       <c r="D353" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H353" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
-      </c>
-      <c r="C354" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C354" s="4">
+        <v>44696</v>
       </c>
       <c r="D354" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H354" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
-      </c>
-      <c r="C355" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C355" s="4">
+        <v>44696</v>
       </c>
       <c r="D355" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H355" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
-      </c>
-      <c r="C356" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C356" s="4">
+        <v>44696</v>
       </c>
       <c r="D356" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H356" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
-      </c>
-      <c r="C357" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C357" s="4">
+        <v>44696</v>
       </c>
       <c r="D357" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H357" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
-      </c>
-      <c r="C358" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C358" s="4">
+        <v>44696</v>
       </c>
       <c r="D358" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H358" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
-      </c>
-      <c r="C359" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C359" s="4">
+        <v>44696</v>
       </c>
       <c r="D359" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H359" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
-      </c>
-      <c r="C360" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C360" s="4">
+        <v>44703</v>
       </c>
       <c r="D360" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H360" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B361" t="s">
         <v>10</v>
       </c>
-      <c r="C361" t="s">
-        <v>75</v>
+      <c r="C361" s="4">
+        <v>44703</v>
       </c>
       <c r="D361" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H361" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
       </c>
-      <c r="C362" t="s">
-        <v>75</v>
+      <c r="C362" s="4">
+        <v>44703</v>
       </c>
       <c r="D362" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H362" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B363" t="s">
         <v>10</v>
       </c>
-      <c r="C363" t="s">
-        <v>75</v>
+      <c r="C363" s="4">
+        <v>44703</v>
       </c>
       <c r="D363" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H363" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
       </c>
-      <c r="C364" t="s">
-        <v>75</v>
+      <c r="C364" s="4">
+        <v>44703</v>
       </c>
       <c r="D364" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H364" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B365" t="s">
         <v>10</v>
       </c>
-      <c r="C365" t="s">
-        <v>75</v>
+      <c r="C365" s="4">
+        <v>44703</v>
       </c>
       <c r="D365" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H365" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B366" t="s">
         <v>10</v>
       </c>
-      <c r="C366" t="s">
-        <v>75</v>
+      <c r="C366" s="4">
+        <v>44703</v>
       </c>
       <c r="D366" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H366" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B367" t="s">
         <v>10</v>
       </c>
-      <c r="C367" t="s">
-        <v>75</v>
+      <c r="C367" s="4">
+        <v>44703</v>
       </c>
       <c r="D367" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="H367" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
       </c>
-      <c r="C368" t="s">
-        <v>75</v>
+      <c r="C368" s="4">
+        <v>44703</v>
       </c>
       <c r="D368" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H368" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B369" t="s">
         <v>10</v>
       </c>
-      <c r="C369" t="s">
-        <v>75</v>
+      <c r="C369" s="4">
+        <v>44703</v>
       </c>
       <c r="D369" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H369" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>37</v>
-      </c>
-      <c r="B370" t="s">
-        <v>10</v>
-      </c>
-      <c r="C370" t="s">
-        <v>75</v>
-      </c>
-      <c r="D370" t="s">
-        <v>86</v>
-      </c>
-      <c r="H370" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>38</v>
-      </c>
-      <c r="B371" t="s">
-        <v>10</v>
-      </c>
-      <c r="C371" t="s">
-        <v>76</v>
-      </c>
-      <c r="D371" t="s">
-        <v>84</v>
-      </c>
-      <c r="H371" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>38</v>
-      </c>
-      <c r="B372" t="s">
-        <v>10</v>
-      </c>
-      <c r="C372" t="s">
-        <v>76</v>
-      </c>
-      <c r="D372" t="s">
-        <v>92</v>
-      </c>
-      <c r="H372" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>38</v>
-      </c>
-      <c r="B373" t="s">
-        <v>10</v>
-      </c>
-      <c r="C373" t="s">
-        <v>76</v>
-      </c>
-      <c r="D373" t="s">
-        <v>77</v>
-      </c>
-      <c r="H373" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>38</v>
-      </c>
-      <c r="B374" t="s">
-        <v>10</v>
-      </c>
-      <c r="C374" t="s">
-        <v>76</v>
-      </c>
-      <c r="D374" t="s">
-        <v>87</v>
-      </c>
-      <c r="H374" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>38</v>
-      </c>
-      <c r="B375" t="s">
-        <v>10</v>
-      </c>
-      <c r="C375" t="s">
-        <v>76</v>
-      </c>
-      <c r="D375" t="s">
-        <v>89</v>
-      </c>
-      <c r="H375" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>38</v>
-      </c>
-      <c r="B376" t="s">
-        <v>10</v>
-      </c>
-      <c r="C376" t="s">
-        <v>76</v>
-      </c>
-      <c r="D376" t="s">
-        <v>80</v>
-      </c>
-      <c r="H376" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>38</v>
-      </c>
-      <c r="B377" t="s">
-        <v>10</v>
-      </c>
-      <c r="C377" t="s">
-        <v>76</v>
-      </c>
-      <c r="D377" t="s">
-        <v>82</v>
-      </c>
-      <c r="H377" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>38</v>
-      </c>
-      <c r="B378" t="s">
-        <v>10</v>
-      </c>
-      <c r="C378" t="s">
-        <v>76</v>
-      </c>
-      <c r="D378" t="s">
-        <v>95</v>
-      </c>
-      <c r="H378" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>38</v>
-      </c>
-      <c r="B379" t="s">
-        <v>10</v>
-      </c>
-      <c r="C379" t="s">
-        <v>76</v>
-      </c>
-      <c r="D379" t="s">
-        <v>90</v>
-      </c>
-      <c r="H379" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>38</v>
-      </c>
-      <c r="B380" t="s">
-        <v>10</v>
-      </c>
-      <c r="C380" t="s">
-        <v>76</v>
-      </c>
-      <c r="D380" t="s">
-        <v>79</v>
-      </c>
-      <c r="H380" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8320,16 +8438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B839C6-183B-4B37-A23E-9B653BB850A0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8337,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8345,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8353,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8361,7 +8481,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8369,7 +8489,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8377,7 +8497,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8385,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8393,7 +8513,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8401,7 +8521,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8409,7 +8529,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8417,7 +8537,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8425,7 +8545,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8433,7 +8553,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8441,7 +8561,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8449,7 +8569,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8457,7 +8577,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8465,7 +8585,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8473,7 +8593,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8481,7 +8601,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8489,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC596A9-99EF-4A95-823B-90A5D7F337B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A85BFFE-72E6-43E8-96C7-25F9B8E87EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="69">
   <si>
     <t>Wk</t>
   </si>
@@ -648,13 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5375,7 +5377,7 @@
         <v>47</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5575,7 +5577,7 @@
         <v>55</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5654,6 +5656,9 @@
       <c r="E250" t="s">
         <v>53</v>
       </c>
+      <c r="F250">
+        <v>-1</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
@@ -5671,6 +5676,9 @@
       <c r="E251" t="s">
         <v>55</v>
       </c>
+      <c r="F251">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
@@ -5688,6 +5696,9 @@
       <c r="E252" t="s">
         <v>57</v>
       </c>
+      <c r="F252">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
@@ -5705,6 +5716,9 @@
       <c r="E253" t="s">
         <v>54</v>
       </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
@@ -5722,6 +5736,9 @@
       <c r="E254" t="s">
         <v>49</v>
       </c>
+      <c r="F254">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
@@ -5739,6 +5756,9 @@
       <c r="E255" t="s">
         <v>50</v>
       </c>
+      <c r="F255">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
@@ -5751,13 +5771,16 @@
         <v>44618</v>
       </c>
       <c r="D256" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E256" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F256">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>27</v>
       </c>
@@ -5765,16 +5788,19 @@
         <v>6</v>
       </c>
       <c r="C257" s="4">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="D257" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E257" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F257">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>27</v>
       </c>
@@ -5782,33 +5808,36 @@
         <v>6</v>
       </c>
       <c r="C258" s="4">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="D258" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E258" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F258">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
       </c>
       <c r="C259" s="4">
-        <v>44619</v>
-      </c>
-      <c r="D259" t="s">
-        <v>51</v>
-      </c>
-      <c r="E259" t="s">
+        <v>44625</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>28</v>
       </c>
@@ -5818,14 +5847,14 @@
       <c r="C260" s="4">
         <v>44625</v>
       </c>
-      <c r="D260" t="s">
-        <v>48</v>
-      </c>
-      <c r="E260" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D260" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>28</v>
       </c>
@@ -5835,14 +5864,14 @@
       <c r="C261" s="4">
         <v>44625</v>
       </c>
-      <c r="D261" t="s">
-        <v>49</v>
-      </c>
-      <c r="E261" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D261" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>28</v>
       </c>
@@ -5852,14 +5881,14 @@
       <c r="C262" s="4">
         <v>44625</v>
       </c>
-      <c r="D262" t="s">
-        <v>63</v>
-      </c>
-      <c r="E262" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D262" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>28</v>
       </c>
@@ -5869,14 +5898,14 @@
       <c r="C263" s="4">
         <v>44625</v>
       </c>
-      <c r="D263" t="s">
-        <v>54</v>
-      </c>
-      <c r="E263" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D263" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>28</v>
       </c>
@@ -5886,14 +5915,14 @@
       <c r="C264" s="4">
         <v>44625</v>
       </c>
-      <c r="D264" t="s">
-        <v>57</v>
-      </c>
-      <c r="E264" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>28</v>
       </c>
@@ -5903,14 +5932,14 @@
       <c r="C265" s="4">
         <v>44625</v>
       </c>
-      <c r="D265" t="s">
-        <v>53</v>
-      </c>
-      <c r="E265" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D265" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>28</v>
       </c>
@@ -5918,16 +5947,16 @@
         <v>6</v>
       </c>
       <c r="C266" s="4">
-        <v>44625</v>
-      </c>
-      <c r="D266" t="s">
-        <v>56</v>
-      </c>
-      <c r="E266" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44626</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>28</v>
       </c>
@@ -5937,14 +5966,14 @@
       <c r="C267" s="4">
         <v>44626</v>
       </c>
-      <c r="D267" t="s">
-        <v>50</v>
-      </c>
-      <c r="E267" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D267" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>28</v>
       </c>
@@ -5952,16 +5981,16 @@
         <v>6</v>
       </c>
       <c r="C268" s="4">
-        <v>44626</v>
-      </c>
-      <c r="D268" t="s">
-        <v>58</v>
-      </c>
-      <c r="E268" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44627</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>28</v>
       </c>
@@ -5969,50 +5998,50 @@
         <v>6</v>
       </c>
       <c r="C269" s="4">
-        <v>44627</v>
-      </c>
-      <c r="D269" t="s">
-        <v>55</v>
-      </c>
-      <c r="E269" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44630</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
       </c>
       <c r="C270" s="4">
-        <v>44632</v>
-      </c>
-      <c r="D270" t="s">
-        <v>61</v>
-      </c>
-      <c r="E270" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44630</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
       </c>
       <c r="C271" s="4">
-        <v>44632</v>
-      </c>
-      <c r="D271" t="s">
-        <v>46</v>
-      </c>
-      <c r="E271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44630</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>29</v>
       </c>
@@ -6023,10 +6052,10 @@
         <v>44632</v>
       </c>
       <c r="D272" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E272" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -6040,10 +6069,10 @@
         <v>44632</v>
       </c>
       <c r="D273" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -6057,10 +6086,10 @@
         <v>44632</v>
       </c>
       <c r="D274" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E274" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -6074,10 +6103,10 @@
         <v>44632</v>
       </c>
       <c r="D275" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E275" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -6088,13 +6117,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="4">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="D276" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E276" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -6105,13 +6134,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="4">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="D277" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E277" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -6125,10 +6154,10 @@
         <v>44633</v>
       </c>
       <c r="D278" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E278" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -6139,47 +6168,47 @@
         <v>6</v>
       </c>
       <c r="C279" s="4">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="D279" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E279" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280" s="4">
-        <v>44638</v>
+        <v>44633</v>
       </c>
       <c r="D280" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E280" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
       </c>
       <c r="C281" s="4">
-        <v>44639</v>
+        <v>44634</v>
       </c>
       <c r="D281" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E281" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -6190,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="C282" s="4">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="D282" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E282" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -6210,10 +6239,10 @@
         <v>44639</v>
       </c>
       <c r="D283" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E283" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -6227,10 +6256,10 @@
         <v>44639</v>
       </c>
       <c r="D284" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E284" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -6244,10 +6273,10 @@
         <v>44639</v>
       </c>
       <c r="D285" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E285" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -6261,10 +6290,10 @@
         <v>44639</v>
       </c>
       <c r="D286" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E286" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -6278,10 +6307,10 @@
         <v>44639</v>
       </c>
       <c r="D287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E287" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -6292,13 +6321,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="4">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="D288" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E288" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -6309,47 +6338,47 @@
         <v>6</v>
       </c>
       <c r="C289" s="4">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="D289" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E289" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
       </c>
       <c r="C290" s="4">
-        <v>44653</v>
+        <v>44640</v>
       </c>
       <c r="D290" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E290" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
       </c>
       <c r="C291" s="4">
-        <v>44653</v>
+        <v>44640</v>
       </c>
       <c r="D291" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E291" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -6363,10 +6392,10 @@
         <v>44653</v>
       </c>
       <c r="D292" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -6380,10 +6409,10 @@
         <v>44653</v>
       </c>
       <c r="D293" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E293" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -6397,10 +6426,10 @@
         <v>44653</v>
       </c>
       <c r="D294" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E294" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -6414,10 +6443,10 @@
         <v>44653</v>
       </c>
       <c r="D295" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E295" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -6431,10 +6460,10 @@
         <v>44653</v>
       </c>
       <c r="D296" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E296" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -6448,10 +6477,10 @@
         <v>44653</v>
       </c>
       <c r="D297" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E297" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -6465,10 +6494,10 @@
         <v>44653</v>
       </c>
       <c r="D298" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E298" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -6482,44 +6511,44 @@
         <v>44653</v>
       </c>
       <c r="D299" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E299" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
       </c>
       <c r="C300" s="4">
-        <v>44660</v>
+        <v>44653</v>
       </c>
       <c r="D300" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E300" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
       </c>
       <c r="C301" s="4">
-        <v>44660</v>
+        <v>44653</v>
       </c>
       <c r="D301" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E301" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -6533,10 +6562,10 @@
         <v>44660</v>
       </c>
       <c r="D302" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E302" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -6550,10 +6579,10 @@
         <v>44660</v>
       </c>
       <c r="D303" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E303" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -6567,10 +6596,10 @@
         <v>44660</v>
       </c>
       <c r="D304" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E304" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -6584,10 +6613,10 @@
         <v>44660</v>
       </c>
       <c r="D305" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E305" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -6601,10 +6630,10 @@
         <v>44660</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E306" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -6618,10 +6647,10 @@
         <v>44660</v>
       </c>
       <c r="D307" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E307" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6635,10 +6664,10 @@
         <v>44660</v>
       </c>
       <c r="D308" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E308" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6652,44 +6681,44 @@
         <v>44660</v>
       </c>
       <c r="D309" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E309" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310" s="4">
-        <v>44667</v>
+        <v>44660</v>
       </c>
       <c r="D310" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E310" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
       </c>
       <c r="C311" s="4">
-        <v>44667</v>
+        <v>44660</v>
       </c>
       <c r="D311" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E311" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -6703,10 +6732,10 @@
         <v>44667</v>
       </c>
       <c r="D312" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E312" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6720,10 +6749,10 @@
         <v>44667</v>
       </c>
       <c r="D313" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E313" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -6737,10 +6766,10 @@
         <v>44667</v>
       </c>
       <c r="D314" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E314" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6754,10 +6783,10 @@
         <v>44667</v>
       </c>
       <c r="D315" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E315" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -6771,10 +6800,10 @@
         <v>44667</v>
       </c>
       <c r="D316" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E316" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6788,10 +6817,10 @@
         <v>44667</v>
       </c>
       <c r="D317" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E317" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6805,10 +6834,10 @@
         <v>44667</v>
       </c>
       <c r="D318" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6822,44 +6851,44 @@
         <v>44667</v>
       </c>
       <c r="D319" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E319" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
       </c>
       <c r="C320" s="4">
-        <v>44674</v>
+        <v>44667</v>
       </c>
       <c r="D320" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E320" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
       <c r="C321" s="4">
-        <v>44674</v>
+        <v>44667</v>
       </c>
       <c r="D321" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E321" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6873,10 +6902,10 @@
         <v>44674</v>
       </c>
       <c r="D322" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E322" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6890,10 +6919,10 @@
         <v>44674</v>
       </c>
       <c r="D323" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E323" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -6907,10 +6936,10 @@
         <v>44674</v>
       </c>
       <c r="D324" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E324" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6924,10 +6953,10 @@
         <v>44674</v>
       </c>
       <c r="D325" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E325" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -6941,10 +6970,10 @@
         <v>44674</v>
       </c>
       <c r="D326" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E326" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -6958,10 +6987,10 @@
         <v>44674</v>
       </c>
       <c r="D327" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E327" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6975,10 +7004,10 @@
         <v>44674</v>
       </c>
       <c r="D328" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E328" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -6992,44 +7021,44 @@
         <v>44674</v>
       </c>
       <c r="D329" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E329" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
       <c r="C330" s="4">
-        <v>44681</v>
+        <v>44674</v>
       </c>
       <c r="D330" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E330" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
       <c r="C331" s="4">
-        <v>44681</v>
+        <v>44674</v>
       </c>
       <c r="D331" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -7043,10 +7072,10 @@
         <v>44681</v>
       </c>
       <c r="D332" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E332" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -7060,10 +7089,10 @@
         <v>44681</v>
       </c>
       <c r="D333" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E333" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -7077,10 +7106,10 @@
         <v>44681</v>
       </c>
       <c r="D334" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E334" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -7094,10 +7123,10 @@
         <v>44681</v>
       </c>
       <c r="D335" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E335" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -7111,10 +7140,10 @@
         <v>44681</v>
       </c>
       <c r="D336" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E336" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -7128,10 +7157,10 @@
         <v>44681</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E337" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -7145,10 +7174,10 @@
         <v>44681</v>
       </c>
       <c r="D338" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E338" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -7162,44 +7191,44 @@
         <v>44681</v>
       </c>
       <c r="D339" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E339" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="4">
-        <v>44688</v>
+        <v>44681</v>
       </c>
       <c r="D340" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E340" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="4">
-        <v>44688</v>
+        <v>44681</v>
       </c>
       <c r="D341" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E341" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -7213,10 +7242,10 @@
         <v>44688</v>
       </c>
       <c r="D342" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E342" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -7230,10 +7259,10 @@
         <v>44688</v>
       </c>
       <c r="D343" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E343" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -7247,10 +7276,10 @@
         <v>44688</v>
       </c>
       <c r="D344" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E344" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -7264,10 +7293,10 @@
         <v>44688</v>
       </c>
       <c r="D345" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E345" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -7281,10 +7310,10 @@
         <v>44688</v>
       </c>
       <c r="D346" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E346" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -7298,10 +7327,10 @@
         <v>44688</v>
       </c>
       <c r="D347" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E347" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -7315,10 +7344,10 @@
         <v>44688</v>
       </c>
       <c r="D348" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E348" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -7332,44 +7361,44 @@
         <v>44688</v>
       </c>
       <c r="D349" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E349" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C350" s="4">
-        <v>44696</v>
+        <v>44688</v>
       </c>
       <c r="D350" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E350" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B351" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C351" s="4">
-        <v>44696</v>
+        <v>44688</v>
       </c>
       <c r="D351" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E351" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -7383,10 +7412,10 @@
         <v>44696</v>
       </c>
       <c r="D352" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E352" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7400,10 +7429,10 @@
         <v>44696</v>
       </c>
       <c r="D353" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E353" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7417,10 +7446,10 @@
         <v>44696</v>
       </c>
       <c r="D354" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E354" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7434,10 +7463,10 @@
         <v>44696</v>
       </c>
       <c r="D355" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E355" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -7451,10 +7480,10 @@
         <v>44696</v>
       </c>
       <c r="D356" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E356" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -7468,10 +7497,10 @@
         <v>44696</v>
       </c>
       <c r="D357" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E357" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -7485,10 +7514,10 @@
         <v>44696</v>
       </c>
       <c r="D358" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E358" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -7502,44 +7531,44 @@
         <v>44696</v>
       </c>
       <c r="D359" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E359" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
       </c>
       <c r="C360" s="4">
-        <v>44703</v>
+        <v>44696</v>
       </c>
       <c r="D360" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E360" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
       </c>
       <c r="C361" s="4">
-        <v>44703</v>
+        <v>44696</v>
       </c>
       <c r="D361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E361" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -7553,10 +7582,10 @@
         <v>44703</v>
       </c>
       <c r="D362" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E362" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -7570,10 +7599,10 @@
         <v>44703</v>
       </c>
       <c r="D363" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E363" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -7587,10 +7616,10 @@
         <v>44703</v>
       </c>
       <c r="D364" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E364" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -7604,10 +7633,10 @@
         <v>44703</v>
       </c>
       <c r="D365" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E365" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -7621,10 +7650,10 @@
         <v>44703</v>
       </c>
       <c r="D366" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E366" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -7638,10 +7667,10 @@
         <v>44703</v>
       </c>
       <c r="D367" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E367" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -7655,10 +7684,10 @@
         <v>44703</v>
       </c>
       <c r="D368" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E368" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -7672,9 +7701,43 @@
         <v>44703</v>
       </c>
       <c r="D369" t="s">
+        <v>51</v>
+      </c>
+      <c r="E369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>38</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="4">
+        <v>44703</v>
+      </c>
+      <c r="D370" t="s">
+        <v>59</v>
+      </c>
+      <c r="E370" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>38</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="4">
+        <v>44703</v>
+      </c>
+      <c r="D371" t="s">
         <v>48</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E371" t="s">
         <v>62</v>
       </c>
     </row>

--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A85BFFE-72E6-43E8-96C7-25F9B8E87EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE281C-526C-4528-946E-074F61F08E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5597,7 +5597,7 @@
         <v>59</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5836,6 +5836,9 @@
       <c r="E259" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="F259">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
@@ -5853,6 +5856,9 @@
       <c r="E260" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F260">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
@@ -5870,6 +5876,9 @@
       <c r="E261" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="F261">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
@@ -5887,6 +5896,9 @@
       <c r="E262" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
@@ -5904,6 +5916,9 @@
       <c r="E263" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="F263">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
@@ -5921,6 +5936,9 @@
       <c r="E264" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
@@ -5938,6 +5956,9 @@
       <c r="E265" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="F265">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
@@ -5955,6 +5976,9 @@
       <c r="E266" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
@@ -5972,6 +5996,9 @@
       <c r="E267" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F267">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
@@ -5988,6 +6015,9 @@
       </c>
       <c r="E268" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="F268">
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">

--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE281C-526C-4528-946E-074F61F08E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2FA69-908C-403D-91B5-1C529A92DD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5717,7 +5717,7 @@
         <v>54</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>60</v>
       </c>
       <c r="F259">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5997,7 +5997,7 @@
         <v>47</v>
       </c>
       <c r="F267">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">

--- a/premier_league.xlsx
+++ b/premier_league.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2FA69-908C-403D-91B5-1C529A92DD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90702622-F1F0-4FA9-ACAA-0B903D3B0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="69">
   <si>
     <t>Wk</t>
   </si>
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="F268" sqref="F268"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6017,7 +6017,7 @@
         <v>52</v>
       </c>
       <c r="F268">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -6036,6 +6036,9 @@
       <c r="E269" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="F269">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
@@ -6053,6 +6056,9 @@
       <c r="E270" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="F270">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
@@ -6065,30 +6071,36 @@
         <v>44630</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="F271">
+        <v>1.5</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
       </c>
       <c r="C272" s="4">
-        <v>44632</v>
-      </c>
-      <c r="D272" t="s">
-        <v>61</v>
-      </c>
-      <c r="E272" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44630</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>29</v>
       </c>
@@ -6099,13 +6111,16 @@
         <v>44632</v>
       </c>
       <c r="D273" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>29</v>
       </c>
@@ -6116,13 +6131,16 @@
         <v>44632</v>
       </c>
       <c r="D274" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E274" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F274">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>29</v>
       </c>
@@ -6130,16 +6148,19 @@
         <v>6</v>
       </c>
       <c r="C275" s="4">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="D275" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E275" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F275">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>29</v>
       </c>
@@ -6147,16 +6168,19 @@
         <v>6</v>
       </c>
       <c r="C276" s="4">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="D276" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E276" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F276">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>29</v>
       </c>
@@ -6164,16 +6188,19 @@
         <v>6</v>
       </c>
       <c r="C277" s="4">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="D277" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E277" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F277">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>29</v>
       </c>
@@ -6181,16 +6208,19 @@
         <v>6</v>
       </c>
       <c r="C278" s="4">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="D278" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E278" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F278">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>29</v>
       </c>
@@ -6201,13 +6231,16 @@
         <v>44633</v>
       </c>
       <c r="D279" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E279" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F279">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>29</v>
       </c>
@@ -6218,13 +6251,16 @@
         <v>44633</v>
       </c>
       <c r="D280" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F280">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>29</v>
       </c>
@@ -6232,103 +6268,112 @@
         <v>6</v>
       </c>
       <c r="C281" s="4">
+        <v>44633</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" t="s">
+        <v>48</v>
+      </c>
+      <c r="F281">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>29</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="4">
         <v>44634</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D282" t="s">
         <v>59</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E282" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>30</v>
-      </c>
-      <c r="B282" t="s">
-        <v>6</v>
-      </c>
-      <c r="C282" s="4">
+      <c r="F282">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>29</v>
+      </c>
+      <c r="C283" s="4">
+        <v>44636</v>
+      </c>
+      <c r="D283" t="s">
+        <v>61</v>
+      </c>
+      <c r="E283" t="s">
+        <v>55</v>
+      </c>
+      <c r="F283">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>29</v>
+      </c>
+      <c r="C284" s="4">
+        <v>44636</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" t="s">
+        <v>56</v>
+      </c>
+      <c r="F284">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>29</v>
+      </c>
+      <c r="C285" s="4">
+        <v>44637</v>
+      </c>
+      <c r="D285" t="s">
+        <v>52</v>
+      </c>
+      <c r="E285" t="s">
+        <v>54</v>
+      </c>
+      <c r="F285">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>29</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="4">
         <v>44638</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D286" t="s">
         <v>63</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E286" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>30</v>
-      </c>
-      <c r="B283" t="s">
-        <v>6</v>
-      </c>
-      <c r="C283" s="4">
-        <v>44639</v>
-      </c>
-      <c r="D283" t="s">
-        <v>57</v>
-      </c>
-      <c r="E283" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>30</v>
-      </c>
-      <c r="B284" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284" s="4">
-        <v>44639</v>
-      </c>
-      <c r="D284" t="s">
-        <v>54</v>
-      </c>
-      <c r="E284" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>30</v>
-      </c>
-      <c r="B285" t="s">
-        <v>6</v>
-      </c>
-      <c r="C285" s="4">
-        <v>44639</v>
-      </c>
-      <c r="D285" t="s">
-        <v>53</v>
-      </c>
-      <c r="E285" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>30</v>
-      </c>
-      <c r="B286" t="s">
-        <v>6</v>
-      </c>
-      <c r="C286" s="4">
-        <v>44639</v>
-      </c>
-      <c r="D286" t="s">
-        <v>50</v>
-      </c>
-      <c r="E286" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6337,47 +6382,56 @@
         <v>44639</v>
       </c>
       <c r="D287" t="s">
+        <v>57</v>
+      </c>
+      <c r="E287" t="s">
+        <v>64</v>
+      </c>
+      <c r="F287">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>29</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="4">
+        <v>44640</v>
+      </c>
+      <c r="D288" t="s">
         <v>48</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E288" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>30</v>
-      </c>
-      <c r="B288" t="s">
-        <v>6</v>
-      </c>
-      <c r="C288" s="4">
-        <v>44639</v>
-      </c>
-      <c r="D288" t="s">
-        <v>58</v>
-      </c>
-      <c r="E288" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
       </c>
       <c r="C289" s="4">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="D289" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E289" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F289">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>30</v>
       </c>
@@ -6385,16 +6439,19 @@
         <v>6</v>
       </c>
       <c r="C290" s="4">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="D290" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E290" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F290">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>30</v>
       </c>
@@ -6402,35 +6459,41 @@
         <v>6</v>
       </c>
       <c r="C291" s="4">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="D291" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E291" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F291">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="4">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="D292" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E292" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F292">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6439,32 +6502,38 @@
         <v>44653</v>
       </c>
       <c r="D293" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E293" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
       </c>
       <c r="C294" s="4">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="D294" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E294" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F294">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6473,15 +6542,18 @@
         <v>44653</v>
       </c>
       <c r="D295" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E295" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F295">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6490,15 +6562,18 @@
         <v>44653</v>
       </c>
       <c r="D296" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E296" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F296">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6507,15 +6582,18 @@
         <v>44653</v>
       </c>
       <c r="D297" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E297" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F297">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6524,30 +6602,36 @@
         <v>44653</v>
       </c>
       <c r="D298" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E298" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
       </c>
       <c r="C299" s="4">
-        <v>44653</v>
+        <v>44655</v>
       </c>
       <c r="D299" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E299" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F299">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>31</v>
       </c>
@@ -6555,16 +6639,16 @@
         <v>6</v>
       </c>
       <c r="C300" s="4">
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="D300" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E300" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>31</v>
       </c>
@@ -6572,18 +6656,18 @@
         <v>6</v>
       </c>
       <c r="C301" s="4">
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="D301" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E301" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6592,15 +6676,15 @@
         <v>44660</v>
       </c>
       <c r="D302" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E302" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6609,15 +6693,15 @@
         <v>44660</v>
       </c>
       <c r="D303" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E303" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6626,15 +6710,15 @@
         <v>44660</v>
       </c>
       <c r="D304" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E304" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6643,10 +6727,10 @@
         <v>44660</v>
       </c>
       <c r="D305" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E305" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -6660,10 +6744,10 @@
         <v>44660</v>
       </c>
       <c r="D306" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E306" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -6677,10 +6761,10 @@
         <v>44660</v>
       </c>
       <c r="D307" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E307" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6694,10 +6778,10 @@
         <v>44660</v>
       </c>
       <c r="D308" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E308" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6711,44 +6795,44 @@
         <v>44660</v>
       </c>
       <c r="D309" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E309" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310" s="4">
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="D310" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E310" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
       </c>
       <c r="C311" s="4">
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="D311" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E311" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -6762,10 +6846,10 @@
         <v>44667</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E312" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6779,10 +6863,10 @@
         <v>44667</v>
       </c>
       <c r="D313" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E313" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -6796,10 +6880,10 @@
         <v>44667</v>
       </c>
       <c r="D314" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E314" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6813,10 +6897,10 @@
         <v>44667</v>
       </c>
       <c r="D315" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E315" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -6830,10 +6914,10 @@
         <v>44667</v>
       </c>
       <c r="D316" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E316" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6847,10 +6931,10 @@
         <v>44667</v>
       </c>
       <c r="D317" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E317" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6864,10 +6948,10 @@
         <v>44667</v>
       </c>
       <c r="D318" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E318" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6881,44 +6965,44 @@
         <v>44667</v>
       </c>
       <c r="D319" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E319" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
       </c>
       <c r="C320" s="4">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="D320" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E320" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
       <c r="C321" s="4">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="D321" t="s">
+        <v>48</v>
+      </c>
+      <c r="E321" t="s">
         <v>57</v>
-      </c>
-      <c r="E321" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6932,10 +7016,10 @@
         <v>44674</v>
       </c>
       <c r="D322" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E322" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6949,10 +7033,10 @@
         <v>44674</v>
       </c>
       <c r="D323" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E323" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -6966,10 +7050,10 @@
         <v>44674</v>
       </c>
       <c r="D324" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E324" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6983,10 +7067,10 @@
         <v>44674</v>
       </c>
       <c r="D325" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E325" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -7000,10 +7084,10 @@
         <v>44674</v>
       </c>
       <c r="D326" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E326" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -7017,10 +7101,10 @@
         <v>44674</v>
       </c>
       <c r="D327" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E327" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -7034,10 +7118,10 @@
         <v>44674</v>
       </c>
       <c r="D328" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E328" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -7051,44 +7135,44 @@
         <v>44674</v>
       </c>
       <c r="D329" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E329" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
       <c r="C330" s="4">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="D330" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E330" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
       <c r="C331" s="4">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="D331" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E331" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -7102,10 +7186,10 @@
         <v>44681</v>
       </c>
       <c r="D332" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E332" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -7119,10 +7203,10 @@
         <v>44681</v>
       </c>
       <c r="D333" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E333" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -7136,10 +7220,10 @@
         <v>44681</v>
       </c>
       <c r="D334" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E334" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -7153,10 +7237,10 @@
         <v>44681</v>
       </c>
       <c r="D335" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E335" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -7170,10 +7254,10 @@
         <v>44681</v>
       </c>
       <c r="D336" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E336" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -7187,10 +7271,10 @@
         <v>44681</v>
       </c>
       <c r="D337" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E337" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -7204,10 +7288,10 @@
         <v>44681</v>
       </c>
       <c r="D338" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E338" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -7221,44 +7305,44 @@
         <v>44681</v>
       </c>
       <c r="D339" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E339" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="4">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="D340" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E340" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="4">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="D341" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E341" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -7272,10 +7356,10 @@
         <v>44688</v>
       </c>
       <c r="D342" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E342" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -7289,10 +7373,10 @@
         <v>44688</v>
       </c>
       <c r="D343" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E343" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -7306,10 +7390,10 @@
         <v>44688</v>
       </c>
       <c r="D344" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E344" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -7323,10 +7407,10 @@
         <v>44688</v>
       </c>
       <c r="D345" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E345" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -7340,10 +7424,10 @@
         <v>44688</v>
       </c>
       <c r="D346" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E346" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -7357,10 +7441,10 @@
         <v>44688</v>
       </c>
       <c r="D347" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E347" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -7374,10 +7458,10 @@
         <v>44688</v>
       </c>
       <c r="D348" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E348" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -7391,44 +7475,44 @@
         <v>44688</v>
       </c>
       <c r="D349" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E349" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C350" s="4">
-        <v>44688</v>
+        <v>44696</v>
       </c>
       <c r="D350" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E350" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C351" s="4">
-        <v>44688</v>
+        <v>44696</v>
       </c>
       <c r="D351" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E351" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -7442,10 +7526,10 @@
         <v>44696</v>
       </c>
       <c r="D352" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E352" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7459,10 +7543,10 @@
         <v>44696</v>
       </c>
       <c r="D353" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E353" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7476,10 +7560,10 @@
         <v>44696</v>
       </c>
       <c r="D354" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E354" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7493,10 +7577,10 @@
         <v>44696</v>
       </c>
       <c r="D355" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E355" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -7510,10 +7594,10 @@
         <v>44696</v>
       </c>
       <c r="D356" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E356" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -7527,10 +7611,10 @@
         <v>44696</v>
       </c>
       <c r="D357" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E357" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -7544,10 +7628,10 @@
         <v>44696</v>
       </c>
       <c r="D358" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E358" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -7561,44 +7645,44 @@
         <v>44696</v>
       </c>
       <c r="D359" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E359" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
       </c>
       <c r="C360" s="4">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="D360" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E360" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
       </c>
       <c r="C361" s="4">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="D361" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E361" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -7612,10 +7696,10 @@
         <v>44703</v>
       </c>
       <c r="D362" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E362" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -7629,10 +7713,10 @@
         <v>44703</v>
       </c>
       <c r="D363" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E363" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -7646,10 +7730,10 @@
         <v>44703</v>
       </c>
       <c r="D364" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E364" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -7663,10 +7747,10 @@
         <v>44703</v>
       </c>
       <c r="D365" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E365" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -7680,10 +7764,10 @@
         <v>44703</v>
       </c>
       <c r="D366" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E366" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -7697,10 +7781,10 @@
         <v>44703</v>
       </c>
       <c r="D367" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E367" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -7714,10 +7798,10 @@
         <v>44703</v>
       </c>
       <c r="D368" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E368" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -7731,43 +7815,9 @@
         <v>44703</v>
       </c>
       <c r="D369" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E369" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>38</v>
-      </c>
-      <c r="B370" t="s">
-        <v>7</v>
-      </c>
-      <c r="C370" s="4">
-        <v>44703</v>
-      </c>
-      <c r="D370" t="s">
-        <v>59</v>
-      </c>
-      <c r="E370" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>38</v>
-      </c>
-      <c r="B371" t="s">
-        <v>7</v>
-      </c>
-      <c r="C371" s="4">
-        <v>44703</v>
-      </c>
-      <c r="D371" t="s">
-        <v>48</v>
-      </c>
-      <c r="E371" t="s">
         <v>62</v>
       </c>
     </row>
